--- a/exp2/case02/report/motivation/attention/MeasurementModel.xlsx
+++ b/exp2/case02/report/motivation/attention/MeasurementModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="90">
   <si>
     <t>Global information for a measurement model</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Item residuals</t>
-  </si>
-  <si>
-    <t>Item04A</t>
   </si>
   <si>
     <t>Item05A</t>
@@ -295,7 +292,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="197">
+  <fonts count="194">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -818,11 +815,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1411,11 +1403,6 @@
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
       <b val="true"/>
     </font>
     <font>
@@ -1423,11 +1410,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1532,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1706,6 +1688,7 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1745,14 +1728,13 @@
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1770,6 +1752,7 @@
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1785,20 +1768,20 @@
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1814,14 +1797,14 @@
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1837,14 +1820,13 @@
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1853,6 +1835,7 @@
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1868,14 +1851,13 @@
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1885,18 +1867,18 @@
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1907,9 +1889,6 @@
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1920,13 +1899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>874940</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:colOff>684440</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1945,7 +1924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6477000" cy="6096000"/>
+          <a:ext cx="6286500" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,13 +1942,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2001,13 +1980,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2039,13 +2018,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2077,13 +2056,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2115,13 +2094,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2153,13 +2132,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2191,13 +2170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2229,13 +2208,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2247,82 +2226,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6096000" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>342</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6096000" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>343</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>493940</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2406,19 +2309,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>490.02982240500864</v>
+        <v>394.6417569362421</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-245.01491120250432</v>
+        <v>-197.32087846812104</v>
       </c>
       <c r="D6" t="n" s="34">
         <v>33.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.4586081720690767</v>
+        <v>0.45890077037941324</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2455,13 +2358,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.1432187350271119</v>
+        <v>0.12281527514708541</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.2918658075650002</v>
+        <v>0.30029386039445116</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>1.0</v>
+        <v>0.6000945789760231</v>
       </c>
     </row>
     <row r="12">
@@ -2492,13 +2395,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>86.5139732970572</v>
+        <v>102.45733654460173</v>
       </c>
       <c r="B16" t="n" s="78">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C16" t="n" s="79">
-        <v>0.007578666729273209</v>
+        <v>7.210060230655735E-5</v>
       </c>
     </row>
     <row r="17">
@@ -2529,13 +2432,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>13.914600257076613</v>
+        <v>11.992383490908924</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.11393673771484197</v>
+        <v>0.09414907036313144</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.13489550837939238</v>
+        <v>0.1217719398740503</v>
       </c>
     </row>
     <row r="22">
@@ -2587,19 +2490,19 @@
         <v>2.0</v>
       </c>
       <c r="C26" t="n" s="121">
+        <v>7.0</v>
+      </c>
+      <c r="D26" t="n" s="122">
         <v>6.0</v>
-      </c>
-      <c r="D26" t="n" s="122">
-        <v>7.0</v>
       </c>
       <c r="E26" t="n" s="123">
         <v>42.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>37.260745827274505</v>
+        <v>28.022250608351918</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.6788225055755897</v>
+        <v>0.951772686485248</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2613,22 +2516,22 @@
         <v>3.0</v>
       </c>
       <c r="C27" t="n" s="121">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D27" t="n" s="122">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" t="n" s="123">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>19.99740657241594</v>
+        <v>73.92923894941673</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.9857389301425509</v>
+        <v>0.01221285494155988</v>
       </c>
       <c r="H27" t="n" s="126">
-        <v>1.0</v>
+        <v>0.061064274707799404</v>
       </c>
     </row>
     <row r="28">
@@ -2639,19 +2542,19 @@
         <v>4.0</v>
       </c>
       <c r="C28" t="n" s="121">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D28" t="n" s="122">
         <v>7.0</v>
       </c>
       <c r="E28" t="n" s="123">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>40.50074589247805</v>
+        <v>48.975371896321334</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.5368621654580279</v>
+        <v>0.4741176676359765</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2659,10 +2562,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="119">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B29" t="n" s="120">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C29" t="n" s="121">
         <v>6.0</v>
@@ -2674,13 +2577,13 @@
         <v>42.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>31.28923704728929</v>
+        <v>48.54037333032984</v>
       </c>
       <c r="G29" t="n" s="125">
-        <v>0.8871526885504415</v>
+        <v>0.226165618693572</v>
       </c>
       <c r="H29" t="n" s="126">
-        <v>1.0</v>
+        <v>0.904662474774288</v>
       </c>
     </row>
     <row r="30">
@@ -2688,22 +2591,22 @@
         <v>2.0</v>
       </c>
       <c r="B30" t="n" s="120">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n" s="121">
+        <v>6.0</v>
+      </c>
+      <c r="D30" t="n" s="122">
         <v>7.0</v>
-      </c>
-      <c r="D30" t="n" s="122">
-        <v>6.0</v>
       </c>
       <c r="E30" t="n" s="123">
         <v>42.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>31.61369075380591</v>
+        <v>22.378743244913828</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.8787074181620934</v>
+        <v>0.994383900837059</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2711,7 +2614,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="119">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B31" t="n" s="120">
         <v>4.0</v>
@@ -2726,710 +2629,524 @@
         <v>49.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>73.88629113027584</v>
+        <v>102.45733654460173</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.012318225259668969</v>
+        <v>1.2016767051092891E-5</v>
       </c>
       <c r="H31" t="n" s="126">
-        <v>0.11086402733702072</v>
+        <v>7.210060230655735E-5</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="119">
-        <v>2.0</v>
-      </c>
-      <c r="B32" t="n" s="120">
-        <v>5.0</v>
-      </c>
-      <c r="C32" t="n" s="121">
-        <v>7.0</v>
-      </c>
-      <c r="D32" t="n" s="122">
-        <v>7.0</v>
-      </c>
-      <c r="E32" t="n" s="123">
-        <v>49.0</v>
-      </c>
-      <c r="F32" t="n" s="124">
-        <v>45.3996403797365</v>
-      </c>
-      <c r="G32" t="n" s="125">
-        <v>0.6198827380190999</v>
-      </c>
-      <c r="H32" t="n" s="126">
-        <v>1.0</v>
+      <c r="A32" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="119">
-        <v>3.0</v>
-      </c>
-      <c r="B33" t="n" s="120">
-        <v>4.0</v>
-      </c>
-      <c r="C33" t="n" s="121">
-        <v>6.0</v>
-      </c>
-      <c r="D33" t="n" s="122">
-        <v>7.0</v>
-      </c>
-      <c r="E33" t="n" s="123">
-        <v>42.0</v>
-      </c>
-      <c r="F33" t="n" s="124">
-        <v>46.55423210799468</v>
-      </c>
-      <c r="G33" t="n" s="125">
-        <v>0.29040851306426796</v>
-      </c>
-      <c r="H33" t="n" s="126">
-        <v>1.0</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="119">
-        <v>3.0</v>
-      </c>
-      <c r="B34" t="n" s="120">
-        <v>5.0</v>
-      </c>
-      <c r="C34" t="n" s="121">
-        <v>6.0</v>
-      </c>
-      <c r="D34" t="n" s="122">
-        <v>7.0</v>
-      </c>
-      <c r="E34" t="n" s="123">
-        <v>42.0</v>
-      </c>
-      <c r="F34" t="n" s="124">
-        <v>22.218632773952496</v>
-      </c>
-      <c r="G34" t="n" s="125">
-        <v>0.9948009692243917</v>
-      </c>
-      <c r="H34" t="n" s="126">
-        <v>1.0</v>
+      <c r="A34" t="s" s="130">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="119">
-        <v>4.0</v>
-      </c>
-      <c r="B35" t="n" s="120">
-        <v>5.0</v>
-      </c>
-      <c r="C35" t="n" s="121">
-        <v>7.0</v>
-      </c>
-      <c r="D35" t="n" s="122">
-        <v>7.0</v>
-      </c>
-      <c r="E35" t="n" s="123">
-        <v>49.0</v>
-      </c>
-      <c r="F35" t="n" s="124">
-        <v>86.5139732970572</v>
-      </c>
-      <c r="G35" t="n" s="125">
-        <v>7.578666729273209E-4</v>
-      </c>
-      <c r="H35" t="n" s="126">
-        <v>0.007578666729273209</v>
+      <c r="A35" t="s" s="144">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s" s="144">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s" s="144">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s" s="144">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36" t="n" s="145">
+        <v>-0.5821972298085338</v>
+      </c>
+      <c r="B36" t="n" s="146">
+        <v>0.8538181565450724</v>
+      </c>
+      <c r="C36" t="n" s="147">
+        <v>0.8338995653140069</v>
+      </c>
+      <c r="D36" t="n" s="148">
+        <v>-1.0484083242302757</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>1</v>
+      <c r="A37" t="n" s="145">
+        <v>1.044964450607326</v>
+      </c>
+      <c r="B37" t="n" s="146">
+        <v>0.5646348415174733</v>
+      </c>
+      <c r="C37" t="n" s="147">
+        <v>0.4749960413316696</v>
+      </c>
+      <c r="D37" t="n" s="148">
+        <v>-0.4065438188508299</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="130">
-        <v>30</v>
+      <c r="A38" t="n" s="145">
+        <v>0.10414343030930784</v>
+      </c>
+      <c r="B38" t="n" s="146">
+        <v>-0.4905951963230688</v>
+      </c>
+      <c r="C38" t="n" s="147">
+        <v>-2.4472259198966144</v>
+      </c>
+      <c r="D38" t="n" s="148">
+        <v>-0.3108625227949062</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="144">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s" s="144">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s" s="144">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s" s="144">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s" s="144">
-        <v>35</v>
+      <c r="A39" t="n" s="145">
+        <v>0.0449644506073259</v>
+      </c>
+      <c r="B39" t="n" s="146">
+        <v>0.5646348415174733</v>
+      </c>
+      <c r="C39" t="n" s="147">
+        <v>0.4749960413316696</v>
+      </c>
+      <c r="D39" t="n" s="148">
+        <v>0.5934561811491701</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>0.847849421049971</v>
+        <v>-0.46886410848082427</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>-0.6582936412943088</v>
+        <v>-0.04804765304678771</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>0.790153022684053</v>
+        <v>-0.052662644968091143</v>
       </c>
       <c r="D40" t="n" s="148">
-        <v>0.7561445460197156</v>
-      </c>
-      <c r="E40" t="n" s="149">
-        <v>-1.126919394269473</v>
+        <v>0.06667267488254902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>0.5989610169877677</v>
+        <v>-0.23059171252552346</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>1.0166074398085785</v>
+        <v>1.173710583249659</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>0.5470325217061394</v>
+        <v>-2.80662344823861</v>
       </c>
       <c r="D41" t="n" s="148">
-        <v>0.4428571256230933</v>
-      </c>
-      <c r="E41" t="n" s="149">
-        <v>-0.44004175927435707</v>
+        <v>0.31890856714979643</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>0.4930073484248827</v>
+        <v>-1.1123001774287173</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>0.004405183994735662</v>
+        <v>-0.7111252549899336</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>-0.5831936767917809</v>
+        <v>1.3182418825058173</v>
       </c>
       <c r="D42" t="n" s="148">
-        <v>-2.542584939861194</v>
-      </c>
-      <c r="E42" t="n" s="149">
-        <v>-0.4052161717822633</v>
+        <v>-1.5524941022083403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>0.5989610169877677</v>
+        <v>0.41780277019146617</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>0.016607439808578484</v>
+        <v>-0.14618184345492669</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>0.5470325217061394</v>
+        <v>0.8338995653140078</v>
       </c>
       <c r="D43" t="n" s="148">
-        <v>0.44285712562309243</v>
-      </c>
-      <c r="E43" t="n" s="149">
-        <v>0.5599582407256429</v>
+        <v>-1.0484083242302766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.003999079581134879</v>
+        <v>1.7694082874744765</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>-0.4890416752340787</v>
+        <v>-0.8262894167503405</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>-0.06567195518526692</v>
+        <v>-2.806623448238609</v>
       </c>
       <c r="D44" t="n" s="148">
-        <v>-0.07259314132042416</v>
-      </c>
-      <c r="E44" t="n" s="149">
-        <v>0.04716592497397487</v>
+        <v>0.3189085671497969</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>1.0848670306238613</v>
+        <v>-0.582197229808533</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.39684865637498046</v>
+        <v>-0.14618184345492669</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>1.0206002159068168</v>
+        <v>-0.16610043468599223</v>
       </c>
       <c r="D45" t="n" s="148">
-        <v>-2.975462180455521</v>
-      </c>
-      <c r="E45" t="n" s="149">
-        <v>0.14712916355986572</v>
+        <v>0.9515916757697243</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>-1.5069926515751164</v>
+        <v>-0.46886410848082427</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>-0.9955948160052639</v>
+        <v>0.9519523469532123</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>-0.5831936767917814</v>
+        <v>-1.052662644968093</v>
       </c>
       <c r="D46" t="n" s="148">
-        <v>1.457415060138806</v>
-      </c>
-      <c r="E46" t="n" s="149">
-        <v>-1.4052161717822638</v>
+        <v>0.06667267488254813</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>0.8478494210499719</v>
+        <v>1.4178027701914662</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>0.3417063587056912</v>
+        <v>-0.14618184345492757</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>-0.20984697731594704</v>
+        <v>-0.16610043468599311</v>
       </c>
       <c r="D47" t="n" s="148">
-        <v>0.7561445460197165</v>
-      </c>
-      <c r="E47" t="n" s="149">
-        <v>-1.126919394269473</v>
+        <v>-1.0484083242302766</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>0.1885030501992171</v>
+        <v>-1.351697916023772</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>1.7071545350081418</v>
+        <v>0.05897402701592647</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.8788534424867458</v>
+        <v>0.06729742419035789</v>
       </c>
       <c r="D48" t="n" s="148">
-        <v>-2.8642855557596683</v>
-      </c>
-      <c r="E48" t="n" s="149">
-        <v>0.26201052569193406</v>
+        <v>0.18935132784718034</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.08005943386415737</v>
+        <v>-0.23059171252552346</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.5727504940258701</v>
+        <v>0.17371058324965905</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>-0.13961806669348764</v>
+        <v>-1.8066234482386099</v>
       </c>
       <c r="D49" t="n" s="148">
-        <v>-0.15860163431623242</v>
-      </c>
-      <c r="E49" t="n" s="149">
-        <v>0.9593167912075486</v>
+        <v>0.3189085671497969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>0.9199405661358426</v>
+        <v>-1.351697916023772</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>-0.572750494025871</v>
+        <v>0.05897402701592647</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>0.8603819333065132</v>
+        <v>0.06729742419035789</v>
       </c>
       <c r="D50" t="n" s="148">
-        <v>-1.1586016343162324</v>
-      </c>
-      <c r="E50" t="n" s="149">
-        <v>-0.04068320879245135</v>
+        <v>0.18935132784718034</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-1.0039990795811349</v>
+        <v>0.0449644506073259</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>1.5109583247659204</v>
+        <v>0.5646348415174733</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.06567195518526692</v>
+        <v>0.4749960413316696</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>-0.07259314132042416</v>
-      </c>
-      <c r="E51" t="n" s="149">
-        <v>-0.9528340750260247</v>
+        <v>0.5934561811491701</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-2.597334070071601</v>
+        <v>-0.3516979160237721</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>-1.082662975994559</v>
+        <v>0.05897402701592647</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>0.3289759164239201</v>
+        <v>-0.932702575809643</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>0.3626368933440194</v>
-      </c>
-      <c r="E52" t="n" s="149">
-        <v>0.49685682128368436</v>
+        <v>0.18935132784718034</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>1.0848670306238604</v>
+        <v>-1.1123001774287165</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>-0.39684865637498046</v>
+        <v>-0.7111252549899332</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.02060021590681682</v>
+        <v>0.31824188250581775</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>-1.975462180455522</v>
-      </c>
-      <c r="E53" t="n" s="149">
-        <v>0.14712916355986572</v>
+        <v>-0.5524941022083398</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>0.996000920418866</v>
+        <v>0.41780277019146617</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-1.4890416752340787</v>
+        <v>-1.1461818434549267</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.06567195518526603</v>
+        <v>0.8338995653140078</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>-0.07259314132042416</v>
-      </c>
-      <c r="E54" t="n" s="149">
-        <v>0.047165924973975315</v>
+        <v>-0.048408324230276634</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>-0.31397892306283737</v>
+        <v>1.648302083976228</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.13327894754275338</v>
+        <v>0.058974027015927355</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>0.6321340577826886</v>
+        <v>-1.932702575809642</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>0.5545813937390083</v>
-      </c>
-      <c r="E55" t="n" s="149">
-        <v>0.6713009267277101</v>
+        <v>-0.8106486721528192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.08486703062386036</v>
+        <v>1.6774465903078681</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>-0.39684865637497957</v>
+        <v>0.3065742289794775</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.02060021590681682</v>
+        <v>1.118909153795581</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>-0.975462180455521</v>
-      </c>
-      <c r="E56" t="n" s="149">
-        <v>0.14712916355986572</v>
+        <v>0.2411078163068927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>1.188503050199217</v>
+        <v>0.3013547601865012</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>-1.292845464991859</v>
+        <v>-0.24092203299790071</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.8788534424867454</v>
+        <v>0.7201549436308277</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>0.1357144442403322</v>
-      </c>
-      <c r="E57" t="n" s="149">
-        <v>-0.7379894743080655</v>
+        <v>-0.1626980967647924</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-1.0039990795811349</v>
+        <v>-1.2305917125255244</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>0.5109583247659204</v>
+        <v>-0.826289416750341</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>-1.065671955185267</v>
+        <v>0.19337655176139057</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>0.927406858679575</v>
-      </c>
-      <c r="E58" t="n" s="149">
-        <v>0.04716592497397487</v>
+        <v>0.318908567149796</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>0.08486703062386036</v>
+        <v>2.176152804242177</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>1.6031513436250187</v>
+        <v>-1.3376135191571326</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>0.020600215906815933</v>
+        <v>2.5999924821860505</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>-1.975462180455522</v>
-      </c>
-      <c r="E59" t="n" s="149">
-        <v>-0.8528708364401352</v>
+        <v>-2.282499781079813</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>-1.4813681368483946</v>
+        <v>1.1761528042421778</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>1.9068112851826857</v>
+        <v>-0.33761351915713345</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>0.4684857671301108</v>
+        <v>-0.4000075178139495</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>1.337526000219067</v>
-      </c>
-      <c r="E60" t="n" s="149">
-        <v>0.45513501543078494</v>
+        <v>0.7175002189201871</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>0.7708150582683508</v>
+        <v>-1.2305917125255244</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>0.24442938621102606</v>
+        <v>-0.826289416750341</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-0.28502540680216804</v>
+        <v>0.19337655176139057</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>0.6614544324554537</v>
-      </c>
-      <c r="E61" t="n" s="149">
-        <v>-0.22194181878754904</v>
+        <v>0.318908567149796</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>0.18850305019921665</v>
+        <v>-1.8238471957578222</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-1.292845464991859</v>
+        <v>1.6623864808428674</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>-0.8788534424867462</v>
+        <v>0.5999924821860505</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>0.1357144442403313</v>
-      </c>
-      <c r="E62" t="n" s="149">
-        <v>0.26201052569193406</v>
+        <v>0.717500218920188</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>0.6860210769371635</v>
+        <v>-0.582197229808533</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>2.1332789475427543</v>
+        <v>0.8538181565450733</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-1.3678659422173105</v>
+        <v>-0.16610043468599223</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>2.5545813937390083</v>
-      </c>
-      <c r="E63" t="n" s="149">
-        <v>-2.328699073272289</v>
+        <v>-0.048408324230275745</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>1.5989610169877668</v>
+        <v>0.0449644506073259</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>1.0166074398085767</v>
+        <v>0.5646348415174733</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>-0.4529674782938615</v>
+        <v>0.4749960413316696</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>-0.5571428743769085</v>
-      </c>
-      <c r="E64" t="n" s="149">
-        <v>0.5599582407256429</v>
+        <v>0.5934561811491701</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-1.5973340700716006</v>
+        <v>-0.20457293803575816</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-1.082662975994559</v>
+        <v>-0.6134989206098735</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.6710240835760799</v>
+        <v>1.2352282507959451</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>0.3626368933440194</v>
-      </c>
-      <c r="E65" t="n" s="149">
-        <v>0.49685682128368436</v>
+        <v>2.35616894859446</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>-0.22918494173164916</v>
+        <v>-0.08351271680789019</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>-1.755570613788974</v>
+        <v>-0.528448033547158</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>1.714974593197832</v>
+        <v>1.3522730132109508</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>0.6614544324554545</v>
-      </c>
-      <c r="E66" t="n" s="149">
-        <v>0.7780581812124518</v>
+        <v>1.471948412597647</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.08005943386415737</v>
+        <v>1.4178027701914662</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.572750494025871</v>
+        <v>-0.14618184345492757</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>0.8603819333065124</v>
+        <v>-0.16610043468599311</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>-0.15860163431623242</v>
-      </c>
-      <c r="E67" t="n" s="149">
-        <v>-0.04068320879245135</v>
+        <v>-1.0484083242302766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>0.5989610169877677</v>
+        <v>-0.6986452398134988</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>0.016607439808578484</v>
+        <v>0.7590779670020993</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>0.5470325217061394</v>
+        <v>0.7201549436308277</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>0.44285712562309243</v>
-      </c>
-      <c r="E68" t="n" s="149">
-        <v>0.5599582407256429</v>
+        <v>-0.1626980967647924</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n" s="145">
-        <v>-1.4010389830122314</v>
-      </c>
-      <c r="B69" t="n" s="146">
-        <v>0.016607439808578484</v>
-      </c>
-      <c r="C69" t="n" s="147">
-        <v>-0.45296747829386064</v>
-      </c>
-      <c r="D69" t="n" s="148">
-        <v>1.4428571256230933</v>
-      </c>
-      <c r="E69" t="n" s="149">
-        <v>2.559958240725642</v>
+      <c r="A69" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n" s="145">
-        <v>-0.4010389830122332</v>
-      </c>
-      <c r="B70" t="n" s="146">
-        <v>0.016607439808578484</v>
-      </c>
-      <c r="C70" t="n" s="147">
-        <v>-0.45296747829386064</v>
-      </c>
-      <c r="D70" t="n" s="148">
-        <v>1.4428571256230924</v>
-      </c>
-      <c r="E70" t="n" s="149">
-        <v>1.559958240725643</v>
+      <c r="A70" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n" s="145">
-        <v>-1.0039990795811349</v>
-      </c>
-      <c r="B71" t="n" s="146">
-        <v>1.5109583247659204</v>
-      </c>
-      <c r="C71" t="n" s="147">
-        <v>-0.06567195518526692</v>
-      </c>
-      <c r="D71" t="n" s="148">
-        <v>-0.07259314132042416</v>
-      </c>
-      <c r="E71" t="n" s="149">
-        <v>-0.9528340750260247</v>
+      <c r="A71" t="s" s="152">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n" s="145">
-        <v>-0.15215057895002815</v>
-      </c>
-      <c r="B72" t="n" s="146">
-        <v>-0.6582936412943088</v>
-      </c>
-      <c r="C72" t="n" s="147">
-        <v>0.7901530226840539</v>
-      </c>
-      <c r="D72" t="n" s="148">
-        <v>0.7561445460197165</v>
-      </c>
-      <c r="E72" t="n" s="149">
-        <v>-0.12691939426947307</v>
+      <c r="A72" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3443,8 +3160,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="153">
-        <v>36</v>
+      <c r="A75" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3594,31 +3311,6 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3658,8 +3350,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="163">
-        <v>37</v>
+      <c r="A1" t="s" s="162">
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -3673,340 +3365,291 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="177">
+      <c r="A4" t="s" s="176">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="190">
         <v>38</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="191">
+      <c r="B5" t="s" s="190">
         <v>39</v>
       </c>
-      <c r="B5" t="s" s="191">
+      <c r="C5" t="s" s="190">
         <v>40</v>
       </c>
-      <c r="C5" t="s" s="191">
+      <c r="D5" t="s" s="190">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="191">
+      <c r="E5" t="s" s="190">
         <v>42</v>
       </c>
-      <c r="E5" t="s" s="191">
+      <c r="F5" t="s" s="190">
         <v>43</v>
       </c>
-      <c r="F5" t="s" s="191">
+      <c r="G5" t="s" s="190">
         <v>44</v>
       </c>
-      <c r="G5" t="s" s="191">
+      <c r="H5" t="s" s="190">
         <v>45</v>
       </c>
-      <c r="H5" t="s" s="191">
+      <c r="I5" t="s" s="190">
         <v>46</v>
       </c>
-      <c r="I5" t="s" s="191">
+      <c r="J5" t="s" s="190">
         <v>47</v>
       </c>
-      <c r="J5" t="s" s="191">
+      <c r="K5" t="s" s="190">
         <v>48</v>
       </c>
-      <c r="K5" t="s" s="191">
+      <c r="L5" t="s" s="190">
         <v>49</v>
       </c>
-      <c r="L5" t="s" s="191">
+      <c r="M5" t="s" s="190">
         <v>50</v>
       </c>
-      <c r="M5" t="s" s="191">
+      <c r="N5" t="s" s="190">
         <v>51</v>
       </c>
-      <c r="N5" t="s" s="191">
+      <c r="O5" t="s" s="190">
         <v>52</v>
       </c>
-      <c r="O5" t="s" s="191">
+      <c r="P5" t="s" s="190">
         <v>53</v>
       </c>
-      <c r="P5" t="s" s="191">
+      <c r="Q5" t="s" s="190">
         <v>54</v>
       </c>
-      <c r="Q5" t="s" s="191">
+      <c r="R5" t="s" s="190">
         <v>55</v>
       </c>
-      <c r="R5" t="s" s="191">
-        <v>56</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="192">
+      <c r="A6" t="s" s="191">
         <v>31</v>
       </c>
-      <c r="B6" t="n" s="193">
+      <c r="B6" t="n" s="192">
         <v>33.0</v>
       </c>
-      <c r="C6" t="n" s="194">
-        <v>4.0606060606060606</v>
-      </c>
-      <c r="D6" t="n" s="195">
-        <v>-1.343011450929399</v>
-      </c>
-      <c r="E6" t="n" s="196">
-        <v>-6.824096193354048</v>
-      </c>
-      <c r="F6" t="n" s="197">
-        <v>-7.558414681789921</v>
-      </c>
-      <c r="G6" t="n" s="198">
-        <v>-9.318954589795588</v>
-      </c>
-      <c r="H6" t="n" s="199">
-        <v>-10.111208730231272</v>
-      </c>
-      <c r="I6" t="n" s="200">
-        <v>-9.729818666414376</v>
-      </c>
-      <c r="J6" t="n" s="201">
-        <v>-8.058068705576394</v>
-      </c>
-      <c r="K6" s="202"/>
-      <c r="L6" t="n" s="203">
+      <c r="C6" t="n" s="193">
+        <v>4.575757575757576</v>
+      </c>
+      <c r="D6" t="n" s="194">
+        <v>-1.3972147531676218</v>
+      </c>
+      <c r="E6" t="n" s="195">
+        <v>-7.18428244506302</v>
+      </c>
+      <c r="F6" t="n" s="196">
+        <v>-8.26384290581359</v>
+      </c>
+      <c r="G6" t="n" s="197">
+        <v>-10.680164476776051</v>
+      </c>
+      <c r="H6" t="n" s="198">
+        <v>-11.859247473746695</v>
+      </c>
+      <c r="I6" t="n" s="199">
+        <v>-11.786930828219779</v>
+      </c>
+      <c r="J6" t="n" s="200">
+        <v>-10.663400941659518</v>
+      </c>
+      <c r="K6" t="n" s="201">
+        <v>-9.780503272173352</v>
+      </c>
+      <c r="L6" t="n" s="202">
         <v>1.0</v>
       </c>
-      <c r="M6" t="n" s="204">
+      <c r="M6" t="n" s="203">
         <v>2.0</v>
       </c>
-      <c r="N6" t="n" s="205">
+      <c r="N6" t="n" s="204">
         <v>3.0</v>
       </c>
-      <c r="O6" t="n" s="206">
-        <v>4.0</v>
-      </c>
-      <c r="P6" t="n" s="207">
+      <c r="O6" t="n" s="205">
+        <v>4.0</v>
+      </c>
+      <c r="P6" t="n" s="206">
         <v>5.0</v>
       </c>
-      <c r="Q6" t="n" s="208">
+      <c r="Q6" t="n" s="207">
         <v>6.0</v>
       </c>
-      <c r="R6" t="n" s="209">
+      <c r="R6" t="n" s="208">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="191">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n" s="192">
+        <v>33.0</v>
+      </c>
+      <c r="C7" t="n" s="193">
+        <v>4.121212121212121</v>
+      </c>
+      <c r="D7" t="n" s="194">
+        <v>-1.4382353401459518</v>
+      </c>
+      <c r="E7" t="n" s="195">
+        <v>-6.8452842949323855</v>
+      </c>
+      <c r="F7" t="n" s="196">
+        <v>-7.585846605552321</v>
+      </c>
+      <c r="G7" t="n" s="197">
+        <v>-9.663170026384146</v>
+      </c>
+      <c r="H7" t="n" s="198">
+        <v>-10.503254873224158</v>
+      </c>
+      <c r="I7" t="n" s="199">
+        <v>-10.091940077566607</v>
+      </c>
+      <c r="J7" t="n" s="200">
+        <v>-8.62941204087571</v>
+      </c>
+      <c r="K7" s="201"/>
+      <c r="L7" t="n" s="202">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n" s="203">
+        <v>2.0</v>
+      </c>
+      <c r="N7" t="n" s="204">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n" s="205">
+        <v>4.0</v>
+      </c>
+      <c r="P7" t="n" s="206">
+        <v>5.0</v>
+      </c>
+      <c r="Q7" t="n" s="207">
+        <v>6.0</v>
+      </c>
+      <c r="R7" t="n" s="208">
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="192">
-        <v>32</v>
-      </c>
-      <c r="B7" t="n" s="193">
+    <row r="8">
+      <c r="A8" t="s" s="191">
+        <v>33</v>
+      </c>
+      <c r="B8" t="n" s="192">
         <v>33.0</v>
       </c>
-      <c r="C7" t="n" s="194">
-        <v>4.575757575757576</v>
-      </c>
-      <c r="D7" t="n" s="195">
-        <v>-1.3839960369309041</v>
-      </c>
-      <c r="E7" t="n" s="196">
-        <v>-7.21491600293361</v>
-      </c>
-      <c r="F7" t="n" s="197">
-        <v>-8.340054300949046</v>
-      </c>
-      <c r="G7" t="n" s="198">
-        <v>-10.491414018534275</v>
-      </c>
-      <c r="H7" t="n" s="199">
-        <v>-11.67448796854952</v>
-      </c>
-      <c r="I7" t="n" s="200">
-        <v>-11.683917714312186</v>
-      </c>
-      <c r="J7" t="n" s="201">
-        <v>-10.402987563053765</v>
-      </c>
-      <c r="K7" t="n" s="202">
-        <v>-9.687972258516329</v>
-      </c>
-      <c r="L7" t="n" s="203">
+      <c r="C8" t="n" s="193">
+        <v>4.151515151515151</v>
+      </c>
+      <c r="D8" t="n" s="194">
+        <v>-1.0113654156599772</v>
+      </c>
+      <c r="E8" t="n" s="195">
+        <v>-6.798433107555375</v>
+      </c>
+      <c r="F8" t="n" s="196">
+        <v>-7.492144230798301</v>
+      </c>
+      <c r="G8" t="n" s="197">
+        <v>-9.522616464253117</v>
+      </c>
+      <c r="H8" t="n" s="198">
+        <v>-10.315850123716118</v>
+      </c>
+      <c r="I8" t="n" s="199">
+        <v>-9.857684140681558</v>
+      </c>
+      <c r="J8" t="n" s="200">
+        <v>-8.34830491661365</v>
+      </c>
+      <c r="K8" t="n" s="201">
+        <v>-7.07955790961984</v>
+      </c>
+      <c r="L8" t="n" s="202">
         <v>1.0</v>
       </c>
-      <c r="M7" t="n" s="204">
+      <c r="M8" t="n" s="203">
         <v>2.0</v>
       </c>
-      <c r="N7" t="n" s="205">
+      <c r="N8" t="n" s="204">
         <v>3.0</v>
       </c>
-      <c r="O7" t="n" s="206">
-        <v>4.0</v>
-      </c>
-      <c r="P7" t="n" s="207">
+      <c r="O8" t="n" s="205">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n" s="206">
         <v>5.0</v>
       </c>
-      <c r="Q7" t="n" s="208">
+      <c r="Q8" t="n" s="207">
         <v>6.0</v>
       </c>
-      <c r="R7" t="n" s="209">
+      <c r="R8" t="n" s="208">
         <v>7.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="192">
-        <v>33</v>
-      </c>
-      <c r="B8" t="n" s="193">
+    <row r="9">
+      <c r="A9" t="s" s="191">
+        <v>34</v>
+      </c>
+      <c r="B9" t="n" s="192">
         <v>33.0</v>
       </c>
-      <c r="C8" t="n" s="194">
-        <v>4.121212121212121</v>
-      </c>
-      <c r="D8" t="n" s="195">
-        <v>-1.4052064452147273</v>
-      </c>
-      <c r="E8" t="n" s="196">
-        <v>-6.886291187639376</v>
-      </c>
-      <c r="F8" t="n" s="197">
-        <v>-7.682804670360579</v>
-      </c>
-      <c r="G8" t="n" s="198">
-        <v>-9.505539572651575</v>
-      </c>
-      <c r="H8" t="n" s="199">
-        <v>-10.359988707372585</v>
-      </c>
-      <c r="I8" t="n" s="200">
-        <v>-10.040793637841018</v>
-      </c>
-      <c r="J8" t="n" s="201">
-        <v>-8.431238671288364</v>
-      </c>
-      <c r="K8" s="202"/>
-      <c r="L8" t="n" s="203">
+      <c r="C9" t="n" s="193">
+        <v>4.03030303030303</v>
+      </c>
+      <c r="D9" t="n" s="194">
+        <v>-0.9023564607011808</v>
+      </c>
+      <c r="E9" t="n" s="195">
+        <v>-6.68942415259658</v>
+      </c>
+      <c r="F9" t="n" s="196">
+        <v>-7.2741263208807085</v>
+      </c>
+      <c r="G9" t="n" s="197">
+        <v>-9.195589599376728</v>
+      </c>
+      <c r="H9" t="n" s="198">
+        <v>-9.879814303880933</v>
+      </c>
+      <c r="I9" t="n" s="199">
+        <v>-9.312639365887577</v>
+      </c>
+      <c r="J9" t="n" s="200">
+        <v>-7.694251186860872</v>
+      </c>
+      <c r="K9" t="n" s="201">
+        <v>-6.316495224908266</v>
+      </c>
+      <c r="L9" t="n" s="202">
         <v>1.0</v>
       </c>
-      <c r="M8" t="n" s="204">
+      <c r="M9" t="n" s="203">
         <v>2.0</v>
       </c>
-      <c r="N8" t="n" s="205">
+      <c r="N9" t="n" s="204">
         <v>3.0</v>
       </c>
-      <c r="O8" t="n" s="206">
-        <v>4.0</v>
-      </c>
-      <c r="P8" t="n" s="207">
+      <c r="O9" t="n" s="205">
+        <v>4.0</v>
+      </c>
+      <c r="P9" t="n" s="206">
         <v>5.0</v>
       </c>
-      <c r="Q8" t="n" s="208">
+      <c r="Q9" t="n" s="207">
         <v>6.0</v>
       </c>
-      <c r="R8" t="n" s="209">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="192">
-        <v>34</v>
-      </c>
-      <c r="B9" t="n" s="193">
-        <v>33.0</v>
-      </c>
-      <c r="C9" t="n" s="194">
-        <v>4.151515151515151</v>
-      </c>
-      <c r="D9" t="n" s="195">
-        <v>-1.0082171523124515</v>
-      </c>
-      <c r="E9" t="n" s="196">
-        <v>-6.839137118315158</v>
-      </c>
-      <c r="F9" t="n" s="197">
-        <v>-7.58849653171214</v>
-      </c>
-      <c r="G9" t="n" s="198">
-        <v>-9.364077364678916</v>
-      </c>
-      <c r="H9" t="n" s="199">
-        <v>-10.17137243007571</v>
-      </c>
-      <c r="I9" t="n" s="200">
-        <v>-9.805023291219923</v>
-      </c>
-      <c r="J9" t="n" s="201">
-        <v>-8.14831425534305</v>
-      </c>
-      <c r="K9" t="n" s="202">
-        <v>-7.05752006618716</v>
-      </c>
-      <c r="L9" t="n" s="203">
-        <v>1.0</v>
-      </c>
-      <c r="M9" t="n" s="204">
-        <v>2.0</v>
-      </c>
-      <c r="N9" t="n" s="205">
-        <v>3.0</v>
-      </c>
-      <c r="O9" t="n" s="206">
-        <v>4.0</v>
-      </c>
-      <c r="P9" t="n" s="207">
-        <v>5.0</v>
-      </c>
-      <c r="Q9" t="n" s="208">
-        <v>6.0</v>
-      </c>
-      <c r="R9" t="n" s="209">
+      <c r="R9" t="n" s="208">
         <v>7.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="192">
-        <v>35</v>
-      </c>
-      <c r="B10" t="n" s="193">
-        <v>33.0</v>
-      </c>
-      <c r="C10" t="n" s="194">
-        <v>4.03030303030303</v>
-      </c>
-      <c r="D10" t="n" s="195">
-        <v>-0.9030057533243437</v>
-      </c>
-      <c r="E10" t="n" s="196">
-        <v>-6.73392571932705</v>
-      </c>
-      <c r="F10" t="n" s="197">
-        <v>-7.378073733735925</v>
-      </c>
-      <c r="G10" t="n" s="198">
-        <v>-9.048443167714595</v>
-      </c>
-      <c r="H10" t="n" s="199">
-        <v>-9.75052683412328</v>
-      </c>
-      <c r="I10" t="n" s="200">
-        <v>-9.278966296279384</v>
-      </c>
-      <c r="J10" t="n" s="201">
-        <v>-7.517045861414404</v>
-      </c>
-      <c r="K10" t="n" s="202">
-        <v>-6.321040273270406</v>
-      </c>
-      <c r="L10" t="n" s="203">
-        <v>1.0</v>
-      </c>
-      <c r="M10" t="n" s="204">
-        <v>2.0</v>
-      </c>
-      <c r="N10" t="n" s="205">
-        <v>3.0</v>
-      </c>
-      <c r="O10" t="n" s="206">
-        <v>4.0</v>
-      </c>
-      <c r="P10" t="n" s="207">
-        <v>5.0</v>
-      </c>
-      <c r="Q10" t="n" s="208">
-        <v>6.0</v>
-      </c>
-      <c r="R10" t="n" s="209">
-        <v>7.0</v>
+      <c r="A10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4015,587 +3658,541 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>1</v>
+      <c r="A12" t="s" s="212">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="213">
+      <c r="A13"/>
+      <c r="B13" t="s" s="226">
         <v>57</v>
       </c>
+      <c r="C13" t="s" s="226">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s" s="226">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s" s="226">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s" s="226">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s" s="226">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s" s="226">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="s" s="227">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s" s="227">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s" s="227">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s" s="227">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s" s="227">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s" s="227">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s" s="227">
+      <c r="A14" t="s" s="222">
+        <v>31</v>
+      </c>
+      <c r="B14" t="n" s="227">
+        <v>-7.187164306640625</v>
+      </c>
+      <c r="C14" t="n" s="228">
+        <v>-2.135101318359375</v>
+      </c>
+      <c r="D14" t="n" s="229">
+        <v>-1.791412353515625</v>
+      </c>
+      <c r="E14" t="n" s="230">
+        <v>-1.069244384765625</v>
+      </c>
+      <c r="F14" t="n" s="231">
+        <v>-0.005950927734375</v>
+      </c>
+      <c r="G14" t="n" s="232">
+        <v>0.858856201171875</v>
+      </c>
+      <c r="H14" t="n" s="233">
+        <v>1.502471923828125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="222">
+        <v>32</v>
+      </c>
+      <c r="B15" t="n" s="227">
+        <v>-6.847869873046875</v>
+      </c>
+      <c r="C15" t="n" s="228">
+        <v>-1.795806884765625</v>
+      </c>
+      <c r="D15" t="n" s="229">
+        <v>-1.452117919921875</v>
+      </c>
+      <c r="E15" t="n" s="230">
+        <v>-0.727935791015625</v>
+      </c>
+      <c r="F15" t="n" s="231">
+        <v>0.395599365234375</v>
+      </c>
+      <c r="G15" t="n" s="232">
+        <v>1.718719482421875</v>
+      </c>
+      <c r="H15" s="233"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="222">
+        <v>33</v>
+      </c>
+      <c r="B16" t="n" s="227">
+        <v>-6.801177978515625</v>
+      </c>
+      <c r="C16" t="n" s="228">
+        <v>-1.749114990234375</v>
+      </c>
+      <c r="D16" t="n" s="229">
+        <v>-1.405426025390625</v>
+      </c>
+      <c r="E16" t="n" s="230">
+        <v>-0.683258056640625</v>
+      </c>
+      <c r="F16" t="n" s="231">
+        <v>0.379852294921875</v>
+      </c>
+      <c r="G16" t="n" s="232">
+        <v>1.244659423828125</v>
+      </c>
+      <c r="H16" t="n" s="233">
+        <v>1.888275146484375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="222">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n" s="227">
+        <v>-6.692047119140625</v>
+      </c>
+      <c r="C17" t="n" s="228">
+        <v>-1.639984130859375</v>
+      </c>
+      <c r="D17" t="n" s="229">
+        <v>-1.296295166015625</v>
+      </c>
+      <c r="E17" t="n" s="230">
+        <v>-0.574127197265625</v>
+      </c>
+      <c r="F17" t="n" s="231">
+        <v>0.489166259765625</v>
+      </c>
+      <c r="G17" t="n" s="232">
+        <v>1.353790283203125</v>
+      </c>
+      <c r="H17" t="n" s="233">
+        <v>1.997406005859375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="237">
         <v>64</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="223">
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s" s="251">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="247">
         <v>31</v>
       </c>
-      <c r="B15" t="n" s="228">
-        <v>-6.827911376953125</v>
-      </c>
-      <c r="C15" t="n" s="229">
-        <v>-1.680084228515625</v>
-      </c>
-      <c r="D15" t="n" s="230">
-        <v>-1.292999267578125</v>
-      </c>
-      <c r="E15" t="n" s="231">
-        <v>-0.640777587890625</v>
-      </c>
-      <c r="F15" t="n" s="232">
-        <v>0.422332763671875</v>
-      </c>
-      <c r="G15" t="n" s="233">
-        <v>1.885162353515625</v>
-      </c>
-      <c r="H15" s="234"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="223">
+      <c r="B22" t="n" s="252">
+        <v>-0.9665394935597111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="247">
         <v>32</v>
       </c>
-      <c r="B16" t="n" s="228">
-        <v>-7.218475341796875</v>
-      </c>
-      <c r="C16" t="n" s="229">
-        <v>-2.070831298828125</v>
-      </c>
-      <c r="D16" t="n" s="230">
-        <v>-1.683746337890625</v>
-      </c>
-      <c r="E16" t="n" s="231">
-        <v>-1.033721923828125</v>
-      </c>
-      <c r="F16" t="n" s="232">
-        <v>-0.031219482421875</v>
-      </c>
-      <c r="G16" t="n" s="233">
-        <v>0.882659912109375</v>
-      </c>
-      <c r="H16" t="n" s="234">
-        <v>1.441680908203125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="223">
+      <c r="B23" t="n" s="252">
+        <v>-1.0101151577067582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="247">
         <v>33</v>
       </c>
-      <c r="B17" t="n" s="228">
-        <v>-6.889984130859375</v>
-      </c>
-      <c r="C17" t="n" s="229">
-        <v>-1.742340087890625</v>
-      </c>
-      <c r="D17" t="n" s="230">
-        <v>-1.355255126953125</v>
-      </c>
-      <c r="E17" t="n" s="231">
-        <v>-0.703033447265625</v>
-      </c>
-      <c r="F17" t="n" s="232">
-        <v>0.360260009765625</v>
-      </c>
-      <c r="G17" t="n" s="233">
-        <v>1.822906494140625</v>
-      </c>
-      <c r="H17" s="234"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="223">
+      <c r="B24" t="n" s="252">
+        <v>-0.5967312220344034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="247">
         <v>34</v>
       </c>
-      <c r="B18" t="n" s="228">
-        <v>-6.842742919921875</v>
-      </c>
-      <c r="C18" t="n" s="229">
-        <v>-1.694915771484375</v>
-      </c>
-      <c r="D18" t="n" s="230">
-        <v>-1.308013916015625</v>
-      </c>
-      <c r="E18" t="n" s="231">
-        <v>-0.657989501953125</v>
-      </c>
-      <c r="F18" t="n" s="232">
-        <v>0.344512939453125</v>
-      </c>
-      <c r="G18" t="n" s="233">
-        <v>1.258392333984375</v>
-      </c>
-      <c r="H18" t="n" s="234">
-        <v>1.817596435546875</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="223">
-        <v>35</v>
-      </c>
-      <c r="B19" t="n" s="228">
-        <v>-6.737640380859375</v>
-      </c>
-      <c r="C19" t="n" s="229">
-        <v>-1.589996337890625</v>
-      </c>
-      <c r="D19" t="n" s="230">
-        <v>-1.202911376953125</v>
-      </c>
-      <c r="E19" t="n" s="231">
-        <v>-0.552886962890625</v>
-      </c>
-      <c r="F19" t="n" s="232">
-        <v>0.449615478515625</v>
-      </c>
-      <c r="G19" t="n" s="233">
-        <v>1.363494873046875</v>
-      </c>
-      <c r="H19" t="n" s="234">
-        <v>1.922515869140625</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="238">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s" s="252">
+      <c r="B25" t="n" s="252">
+        <v>-0.4778553120081863</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="256">
         <v>66</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="248">
+    <row r="29">
+      <c r="A29" t="s" s="270">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s" s="270">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s" s="270">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s" s="270">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s" s="270">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s" s="270">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s" s="270">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="270">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="270">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="271">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="253">
-        <v>-0.895473901580824</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="248">
+      <c r="B30" t="n" s="272">
+        <v>1.0796605361175233</v>
+      </c>
+      <c r="C30" t="n" s="273">
+        <v>0.37072830240293836</v>
+      </c>
+      <c r="D30" t="n" s="274">
+        <v>0.7108399078831438</v>
+      </c>
+      <c r="E30" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F30" t="n" s="276">
+        <v>1.0754572995647185</v>
+      </c>
+      <c r="G30" t="n" s="277">
+        <v>0.35682302493970025</v>
+      </c>
+      <c r="H30" t="n" s="278">
+        <v>0.7212242980378889</v>
+      </c>
+      <c r="I30" t="n" s="279">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="271">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="253">
-        <v>-0.9216221557204023</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="248">
-        <v>33</v>
-      </c>
-      <c r="B26" t="n" s="253">
-        <v>-0.9563461549865012</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="248">
-        <v>34</v>
-      </c>
-      <c r="B27" t="n" s="253">
-        <v>-0.5597717597325019</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="248">
-        <v>35</v>
-      </c>
-      <c r="B28" t="n" s="253">
-        <v>-0.4454687843974679</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="257">
-        <v>67</v>
+      <c r="B31" t="n" s="272">
+        <v>0.6165483267652284</v>
+      </c>
+      <c r="C31" t="n" s="273">
+        <v>-1.6405655216201553</v>
+      </c>
+      <c r="D31" t="n" s="274">
+        <v>0.10088763697068082</v>
+      </c>
+      <c r="E31" t="n" s="275">
+        <v>0.9079887327361273</v>
+      </c>
+      <c r="F31" t="n" s="276">
+        <v>0.6008738412835904</v>
+      </c>
+      <c r="G31" t="n" s="277">
+        <v>-1.7013952159307961</v>
+      </c>
+      <c r="H31" t="n" s="278">
+        <v>0.08886879904757489</v>
+      </c>
+      <c r="I31" t="n" s="279">
+        <v>0.7109503923805991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="271">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s" s="271">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s" s="271">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s" s="271">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s" s="271">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s" s="271">
-        <v>73</v>
-      </c>
-      <c r="G32" t="s" s="271">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="271">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s" s="271">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n" s="272">
+        <v>1.4309014537251759</v>
+      </c>
+      <c r="C32" t="n" s="273">
+        <v>1.4712924741412385</v>
+      </c>
+      <c r="D32" t="n" s="274">
+        <v>0.1412120377197328</v>
+      </c>
+      <c r="E32" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F32" t="n" s="276">
+        <v>1.4342201483299135</v>
+      </c>
+      <c r="G32" t="n" s="277">
+        <v>1.4927524679402249</v>
+      </c>
+      <c r="H32" t="n" s="278">
+        <v>0.1355019936038171</v>
+      </c>
+      <c r="I32" t="n" s="279">
+        <v>0.9485139552267197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="271">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n" s="272">
+        <v>0.8061148132984541</v>
+      </c>
+      <c r="C33" t="n" s="273">
+        <v>-0.6929203506398858</v>
+      </c>
+      <c r="D33" t="n" s="274">
+        <v>0.4883595376449503</v>
+      </c>
+      <c r="E33" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n" s="276">
+        <v>0.7936664793807937</v>
+      </c>
+      <c r="G33" t="n" s="277">
+        <v>-0.7544031208176554</v>
+      </c>
+      <c r="H33" t="n" s="278">
+        <v>0.45060719821275835</v>
+      </c>
+      <c r="I33" t="n" s="279">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="271">
+        <v>57</v>
+      </c>
+      <c r="B34" t="n" s="272">
+        <v>1.5019978333793451</v>
+      </c>
+      <c r="C34" t="n" s="273">
+        <v>44.73164569035303</v>
+      </c>
+      <c r="D34" t="n" s="274">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n" s="275">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n" s="276">
+        <v>1.4055956797331814</v>
+      </c>
+      <c r="G34" t="n" s="277">
+        <v>0.9045534966286726</v>
+      </c>
+      <c r="H34" t="n" s="278">
+        <v>0.3657019810789115</v>
+      </c>
+      <c r="I34" t="n" s="279">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="271">
+        <v>58</v>
+      </c>
+      <c r="B35" t="n" s="272">
+        <v>1.2808090705698236</v>
+      </c>
+      <c r="C35" t="n" s="273">
+        <v>1.1757726290378843</v>
+      </c>
+      <c r="D35" t="n" s="274">
+        <v>0.2396857467212214</v>
+      </c>
+      <c r="E35" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n" s="276">
+        <v>1.1407203992547783</v>
+      </c>
+      <c r="G35" t="n" s="277">
+        <v>0.4841203562068948</v>
+      </c>
+      <c r="H35" t="n" s="278">
+        <v>0.6283004553575842</v>
+      </c>
+      <c r="I35" t="n" s="279">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="271">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n" s="272">
+        <v>1.5827382163581831</v>
+      </c>
+      <c r="C36" t="n" s="273">
+        <v>0.8488239121546034</v>
+      </c>
+      <c r="D36" t="n" s="274">
+        <v>0.39597928232331847</v>
+      </c>
+      <c r="E36" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F36" t="n" s="276">
+        <v>1.374051096622782</v>
+      </c>
+      <c r="G36" t="n" s="277">
+        <v>1.397433574457748</v>
+      </c>
+      <c r="H36" t="n" s="278">
+        <v>0.1622832287213639</v>
+      </c>
+      <c r="I36" t="n" s="279">
+        <v>0.9736993723281833</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="271">
+        <v>60</v>
+      </c>
+      <c r="B37" t="n" s="272">
+        <v>1.3354205060183821</v>
+      </c>
+      <c r="C37" t="n" s="273">
+        <v>0.7526419098250807</v>
+      </c>
+      <c r="D37" t="n" s="274">
+        <v>0.4516651260637622</v>
+      </c>
+      <c r="E37" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F37" t="n" s="276">
+        <v>1.276027211668698</v>
+      </c>
+      <c r="G37" t="n" s="277">
+        <v>2.524499208832053</v>
+      </c>
+      <c r="H37" t="n" s="278">
+        <v>0.011586326574010597</v>
+      </c>
+      <c r="I37" t="n" s="279">
+        <v>0.10427693916609537</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="271">
+        <v>61</v>
+      </c>
+      <c r="B38" t="n" s="272">
+        <v>1.3610756664013968</v>
+      </c>
+      <c r="C38" t="n" s="273">
+        <v>0.9764771702455461</v>
+      </c>
+      <c r="D38" t="n" s="274">
+        <v>0.32882805586807273</v>
+      </c>
+      <c r="E38" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F38" t="n" s="276">
+        <v>1.418402283039464</v>
+      </c>
+      <c r="G38" t="n" s="277">
+        <v>5.5225552997684675</v>
+      </c>
+      <c r="H38" t="n" s="278">
+        <v>3.3410459349837614E-8</v>
+      </c>
+      <c r="I38" t="n" s="279">
+        <v>3.341045934983761E-7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="271">
+        <v>62</v>
+      </c>
+      <c r="B39" t="n" s="272">
+        <v>1.0824618549048741</v>
+      </c>
+      <c r="C39" t="n" s="273">
+        <v>0.5827872834980022</v>
+      </c>
+      <c r="D39" t="n" s="274">
+        <v>0.5600365065526818</v>
+      </c>
+      <c r="E39" t="n" s="275">
+        <v>1.0</v>
+      </c>
+      <c r="F39" t="n" s="276">
+        <v>0.8953910648418837</v>
+      </c>
+      <c r="G39" t="n" s="277">
+        <v>-0.39511265517371935</v>
+      </c>
+      <c r="H39" t="n" s="278">
+        <v>0.692759749672338</v>
+      </c>
+      <c r="I39" t="n" s="279">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="283">
         <v>76</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="272">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n" s="273">
-        <v>1.0423662710203343</v>
-      </c>
-      <c r="C33" t="n" s="274">
-        <v>0.2273081164963857</v>
-      </c>
-      <c r="D33" t="n" s="275">
-        <v>0.8201841622363779</v>
-      </c>
-      <c r="E33" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F33" t="n" s="277">
-        <v>1.0572525824300023</v>
-      </c>
-      <c r="G33" t="n" s="278">
-        <v>0.28642133341458853</v>
-      </c>
-      <c r="H33" t="n" s="279">
-        <v>0.7745554371249405</v>
-      </c>
-      <c r="I33" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="272">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n" s="273">
-        <v>1.0518999026238887</v>
-      </c>
-      <c r="C34" t="n" s="274">
-        <v>0.2659797532321714</v>
-      </c>
-      <c r="D34" t="n" s="275">
-        <v>0.7902548021226111</v>
-      </c>
-      <c r="E34" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F34" t="n" s="277">
-        <v>1.0485652646956418</v>
-      </c>
-      <c r="G34" t="n" s="278">
-        <v>0.2540328640632008</v>
-      </c>
-      <c r="H34" t="n" s="279">
-        <v>0.7994701688399837</v>
-      </c>
-      <c r="I34" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="272">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n" s="273">
-        <v>0.5803341526346405</v>
-      </c>
-      <c r="C35" t="n" s="274">
-        <v>-1.800499682449361</v>
-      </c>
-      <c r="D35" t="n" s="275">
-        <v>0.07178177368400103</v>
-      </c>
-      <c r="E35" t="n" s="276">
-        <v>0.7178177368400103</v>
-      </c>
-      <c r="F35" t="n" s="277">
-        <v>0.5611482720105758</v>
-      </c>
-      <c r="G35" t="n" s="278">
-        <v>-1.8959968654184713</v>
-      </c>
-      <c r="H35" t="n" s="279">
-        <v>0.05796045901845007</v>
-      </c>
-      <c r="I35" t="n" s="280">
-        <v>0.5216441311660506</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="272">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n" s="273">
-        <v>1.5205254980272358</v>
-      </c>
-      <c r="C36" t="n" s="274">
-        <v>1.7223173751442282</v>
-      </c>
-      <c r="D36" t="n" s="275">
-        <v>0.08501204189613194</v>
-      </c>
-      <c r="E36" t="n" s="276">
-        <v>0.7651083770651875</v>
-      </c>
-      <c r="F36" t="n" s="277">
-        <v>1.5205932961758346</v>
-      </c>
-      <c r="G36" t="n" s="278">
-        <v>1.736322458868661</v>
-      </c>
-      <c r="H36" t="n" s="279">
-        <v>0.08250683427385698</v>
-      </c>
-      <c r="I36" t="n" s="280">
-        <v>0.6600546741908558</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="272">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n" s="273">
-        <v>0.81166987789791</v>
-      </c>
-      <c r="C37" t="n" s="274">
-        <v>-0.6671814138597739</v>
-      </c>
-      <c r="D37" t="n" s="275">
-        <v>0.5046562616018293</v>
-      </c>
-      <c r="E37" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F37" t="n" s="277">
-        <v>0.7945106224554195</v>
-      </c>
-      <c r="G37" t="n" s="278">
-        <v>-0.7505280145815904</v>
-      </c>
-      <c r="H37" t="n" s="279">
-        <v>0.45293675781741816</v>
-      </c>
-      <c r="I37" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="272">
-        <v>58</v>
-      </c>
-      <c r="B38" t="n" s="273">
-        <v>1.577624152984562</v>
-      </c>
-      <c r="C38" t="n" s="274">
-        <v>44.008948218839656</v>
-      </c>
-      <c r="D38" t="n" s="275">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="276">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n" s="277">
-        <v>1.4688602402296775</v>
-      </c>
-      <c r="G38" t="n" s="278">
-        <v>1.0218240321947758</v>
-      </c>
-      <c r="H38" t="n" s="279">
-        <v>0.3068641928352332</v>
-      </c>
-      <c r="I38" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="272">
-        <v>59</v>
-      </c>
-      <c r="B39" t="n" s="273">
-        <v>1.2173065431070533</v>
-      </c>
-      <c r="C39" t="n" s="274">
-        <v>1.2094771826196782</v>
-      </c>
-      <c r="D39" t="n" s="275">
-        <v>0.22647957199477986</v>
-      </c>
-      <c r="E39" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F39" t="n" s="277">
-        <v>1.0919642698999263</v>
-      </c>
-      <c r="G39" t="n" s="278">
-        <v>0.3677355310829657</v>
-      </c>
-      <c r="H39" t="n" s="279">
-        <v>0.713070444165375</v>
-      </c>
-      <c r="I39" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="272">
-        <v>60</v>
-      </c>
-      <c r="B40" t="n" s="273">
-        <v>1.4132870521406213</v>
-      </c>
-      <c r="C40" t="n" s="274">
-        <v>0.788954923447644</v>
-      </c>
-      <c r="D40" t="n" s="275">
-        <v>0.430138352840325</v>
-      </c>
-      <c r="E40" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F40" t="n" s="277">
-        <v>1.254174247588389</v>
-      </c>
-      <c r="G40" t="n" s="278">
-        <v>1.1115860700768412</v>
-      </c>
-      <c r="H40" t="n" s="279">
-        <v>0.2663161645640185</v>
-      </c>
-      <c r="I40" t="n" s="280">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="272">
-        <v>61</v>
-      </c>
-      <c r="B41" t="n" s="273">
-        <v>1.4048874064800085</v>
-      </c>
-      <c r="C41" t="n" s="274">
-        <v>0.8140233356281826</v>
-      </c>
-      <c r="D41" t="n" s="275">
-        <v>0.41563158271539347</v>
-      </c>
-      <c r="E41" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F41" t="n" s="277">
-        <v>1.3198988901292996</v>
-      </c>
-      <c r="G41" t="n" s="278">
-        <v>3.2093401591783883</v>
-      </c>
-      <c r="H41" t="n" s="279">
-        <v>0.0013303999511569931</v>
-      </c>
-      <c r="I41" t="n" s="280">
-        <v>0.013303999511569931</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="272">
-        <v>62</v>
-      </c>
-      <c r="B42" t="n" s="273">
-        <v>1.3568718248549885</v>
-      </c>
-      <c r="C42" t="n" s="274">
-        <v>0.9392360888096344</v>
-      </c>
-      <c r="D42" t="n" s="275">
-        <v>0.3476095439429163</v>
-      </c>
-      <c r="E42" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F42" t="n" s="277">
-        <v>1.3938898750727498</v>
-      </c>
-      <c r="G42" t="n" s="278">
-        <v>6.078598184516783</v>
-      </c>
-      <c r="H42" t="n" s="279">
-        <v>1.2123773861498223E-9</v>
-      </c>
-      <c r="I42" t="n" s="280">
-        <v>1.3336151247648046E-8</v>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" t="s" s="272">
-        <v>63</v>
-      </c>
-      <c r="B43" t="n" s="273">
-        <v>1.1837296723759456</v>
-      </c>
-      <c r="C43" t="n" s="274">
-        <v>0.6982082955883544</v>
-      </c>
-      <c r="D43" t="n" s="275">
-        <v>0.48504693931961923</v>
-      </c>
-      <c r="E43" t="n" s="276">
-        <v>1.0</v>
-      </c>
-      <c r="F43" t="n" s="277">
-        <v>1.0337226265389448</v>
-      </c>
-      <c r="G43" t="n" s="278">
-        <v>0.16419517039354073</v>
-      </c>
-      <c r="H43" t="n" s="279">
-        <v>0.8695775029777038</v>
-      </c>
-      <c r="I43" t="n" s="280">
-        <v>1.0</v>
+      <c r="A43" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4609,8 +4206,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="284">
-        <v>77</v>
+      <c r="A46" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5910,356 +5507,6 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6288,1197 +5535,1094 @@
     <col min="9" max="9" width="14.0" customWidth="true"/>
     <col min="10" max="10" width="14.0" customWidth="true"/>
     <col min="11" max="11" width="14.0" customWidth="true"/>
-    <col min="12" max="12" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="298">
+      <c r="A1" t="s" s="297">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s" s="297">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="297">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="297">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s" s="297">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s" s="297">
         <v>78</v>
       </c>
-      <c r="B1" t="s" s="298">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="298">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="298">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s" s="298">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s" s="298">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s" s="298">
+      <c r="G1" t="s" s="297">
         <v>79</v>
       </c>
-      <c r="H1" t="s" s="298">
+      <c r="H1" t="s" s="297">
         <v>80</v>
       </c>
-      <c r="I1" t="s" s="298">
+      <c r="I1" t="s" s="297">
         <v>81</v>
       </c>
-      <c r="J1" t="s" s="298">
+      <c r="J1" t="s" s="297">
         <v>82</v>
       </c>
-      <c r="K1" t="s" s="298">
-        <v>83</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="299">
+      <c r="A2" t="n" s="298">
         <v>10170.0</v>
       </c>
-      <c r="B2" t="n" s="300">
+      <c r="B2" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n" s="300">
         <v>5.0</v>
       </c>
-      <c r="C2" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D2" t="n" s="302">
+      <c r="D2" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="E2" t="n" s="303">
+      <c r="E2" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n" s="303">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n" s="304">
+        <v>0.7040814045905975</v>
+      </c>
+      <c r="H2" t="n" s="305">
+        <v>-0.1455500978235048</v>
+      </c>
+      <c r="I2" t="n" s="306">
+        <v>0.6982348196884914</v>
+      </c>
+      <c r="J2" t="n" s="307">
+        <v>-0.15296819753460278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="298">
+        <v>10171.0</v>
+      </c>
+      <c r="B3" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n" s="300">
         <v>5.0</v>
       </c>
-      <c r="F2" t="n" s="304">
+      <c r="D3" t="n" s="301">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n" s="303">
+        <v>2.0</v>
+      </c>
+      <c r="G3" t="n" s="304">
+        <v>0.24437353207074916</v>
+      </c>
+      <c r="H3" t="n" s="305">
+        <v>-1.5358808917795268</v>
+      </c>
+      <c r="I3" t="n" s="306">
+        <v>0.2592495775328019</v>
+      </c>
+      <c r="J3" t="n" s="307">
+        <v>-1.4698762538088626</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="298">
+        <v>10174.0</v>
+      </c>
+      <c r="B4" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="300">
         <v>3.0</v>
       </c>
-      <c r="G2" t="n" s="305">
+      <c r="D4" t="n" s="301">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n" s="306">
-        <v>0.7007040452312142</v>
-      </c>
-      <c r="I2" t="n" s="307">
-        <v>-0.23837441633236897</v>
-      </c>
-      <c r="J2" t="n" s="308">
-        <v>0.709107893049898</v>
-      </c>
-      <c r="K2" t="n" s="309">
-        <v>-0.2198431243641548</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="299">
-        <v>10171.0</v>
-      </c>
-      <c r="B3" t="n" s="300">
+      <c r="E4" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F4" t="n" s="303">
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="n" s="304">
+        <v>0.6464688636379075</v>
+      </c>
+      <c r="H4" t="n" s="305">
+        <v>-0.5635861893695276</v>
+      </c>
+      <c r="I4" t="n" s="306">
+        <v>0.6510284523912456</v>
+      </c>
+      <c r="J4" t="n" s="307">
+        <v>-0.5591191681178769</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="298">
+        <v>10178.0</v>
+      </c>
+      <c r="B5" t="n" s="299">
         <v>5.0</v>
       </c>
-      <c r="C3" t="n" s="301">
+      <c r="C5" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n" s="301">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F5" t="n" s="303">
+        <v>4.0</v>
+      </c>
+      <c r="G5" t="n" s="304">
+        <v>0.06175308558455149</v>
+      </c>
+      <c r="H5" t="n" s="305">
+        <v>-2.609511666554184</v>
+      </c>
+      <c r="I5" t="n" s="306">
+        <v>0.06164594135140218</v>
+      </c>
+      <c r="J5" t="n" s="307">
+        <v>-2.597935347929563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="298">
+        <v>10179.0</v>
+      </c>
+      <c r="B6" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F6" t="n" s="303">
+        <v>5.0</v>
+      </c>
+      <c r="G6" t="n" s="304">
+        <v>0.037071922213940324</v>
+      </c>
+      <c r="H6" t="n" s="305">
+        <v>-2.1751005455966492</v>
+      </c>
+      <c r="I6" t="n" s="306">
+        <v>0.037388047991651116</v>
+      </c>
+      <c r="J6" t="n" s="307">
+        <v>-2.1668497510216493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="298">
+        <v>10181.0</v>
+      </c>
+      <c r="B7" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n" s="303">
         <v>6.0</v>
       </c>
-      <c r="D3" t="n" s="302">
+      <c r="G7" t="n" s="304">
+        <v>1.734132373512827</v>
+      </c>
+      <c r="H7" t="n" s="305">
+        <v>1.0697217128950791</v>
+      </c>
+      <c r="I7" t="n" s="306">
+        <v>1.7764686142773787</v>
+      </c>
+      <c r="J7" t="n" s="307">
+        <v>1.114818705870665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="298">
+        <v>10183.0</v>
+      </c>
+      <c r="B8" t="n" s="299">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="E3" t="n" s="303">
+      <c r="E8" t="n" s="302">
+        <v>2.0</v>
+      </c>
+      <c r="F8" t="n" s="303">
+        <v>7.0</v>
+      </c>
+      <c r="G8" t="n" s="304">
+        <v>0.896588753575142</v>
+      </c>
+      <c r="H8" t="n" s="305">
+        <v>0.05916408985327476</v>
+      </c>
+      <c r="I8" t="n" s="306">
+        <v>0.9225256897437987</v>
+      </c>
+      <c r="J8" t="n" s="307">
+        <v>0.0962602364370654</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="298">
+        <v>10185.0</v>
+      </c>
+      <c r="B9" t="n" s="299">
         <v>5.0</v>
       </c>
-      <c r="F3" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G3" t="n" s="305">
+      <c r="C9" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="301">
+        <v>5.0</v>
+      </c>
+      <c r="E9" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="n" s="303">
+        <v>8.0</v>
+      </c>
+      <c r="G9" t="n" s="304">
+        <v>0.48150152878031577</v>
+      </c>
+      <c r="H9" t="n" s="305">
+        <v>-0.5414582411987282</v>
+      </c>
+      <c r="I9" t="n" s="306">
+        <v>0.4946783989533706</v>
+      </c>
+      <c r="J9" t="n" s="307">
+        <v>-0.5121851795893099</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="298">
+        <v>10186.0</v>
+      </c>
+      <c r="B10" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C10" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="303">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n" s="304">
+        <v>2.3354141997955247</v>
+      </c>
+      <c r="H10" t="n" s="305">
+        <v>1.5835747858608396</v>
+      </c>
+      <c r="I10" t="n" s="306">
+        <v>2.2627030819408835</v>
+      </c>
+      <c r="J10" t="n" s="307">
+        <v>1.5354235108258318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="298">
+        <v>10187.0</v>
+      </c>
+      <c r="B11" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C11" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E11" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F11" t="n" s="303">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n" s="304">
+        <v>0.3037684453691421</v>
+      </c>
+      <c r="H11" t="n" s="305">
+        <v>-0.9587916701090186</v>
+      </c>
+      <c r="I11" t="n" s="306">
+        <v>0.3141529695465046</v>
+      </c>
+      <c r="J11" t="n" s="307">
+        <v>-0.9265945721105181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="298">
+        <v>10188.0</v>
+      </c>
+      <c r="B12" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n" s="301">
+        <v>3.0</v>
+      </c>
+      <c r="E12" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F12" t="n" s="303">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="304">
+        <v>0.516865635622869</v>
+      </c>
+      <c r="H12" t="n" s="305">
+        <v>-0.4527251170399593</v>
+      </c>
+      <c r="I12" t="n" s="306">
+        <v>0.5023608926668893</v>
+      </c>
+      <c r="J12" t="n" s="307">
+        <v>-0.4787462228300128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="298">
+        <v>10193.0</v>
+      </c>
+      <c r="B13" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C13" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E13" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n" s="303">
+        <v>12.0</v>
+      </c>
+      <c r="G13" t="n" s="304">
+        <v>0.7500973871034602</v>
+      </c>
+      <c r="H13" t="n" s="305">
+        <v>-0.0745761718916988</v>
+      </c>
+      <c r="I13" t="n" s="306">
+        <v>0.7869092616694888</v>
+      </c>
+      <c r="J13" t="n" s="307">
+        <v>-0.018398099613299912</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="298">
+        <v>10196.0</v>
+      </c>
+      <c r="B14" t="n" s="299">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E14" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F14" t="n" s="303">
+        <v>13.0</v>
+      </c>
+      <c r="G14" t="n" s="304">
+        <v>0.36991730407991813</v>
+      </c>
+      <c r="H14" t="n" s="305">
+        <v>-0.8088247038628009</v>
+      </c>
+      <c r="I14" t="n" s="306">
+        <v>0.3548259733874527</v>
+      </c>
+      <c r="J14" t="n" s="307">
+        <v>-0.8493262894476371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="298">
+        <v>10197.0</v>
+      </c>
+      <c r="B15" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D15" t="n" s="301">
         <v>2.0</v>
       </c>
-      <c r="H3" t="n" s="306">
-        <v>0.21864820261469467</v>
-      </c>
-      <c r="I3" t="n" s="307">
-        <v>-1.8046798452208836</v>
-      </c>
-      <c r="J3" t="n" s="308">
-        <v>0.2433572447218412</v>
-      </c>
-      <c r="K3" t="n" s="309">
-        <v>-1.6980428623329917</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="299">
-        <v>10174.0</v>
-      </c>
-      <c r="B4" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D4" t="n" s="302">
+      <c r="E15" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F15" t="n" s="303">
+        <v>14.0</v>
+      </c>
+      <c r="G15" t="n" s="304">
+        <v>0.5574716638615871</v>
+      </c>
+      <c r="H15" t="n" s="305">
+        <v>-0.4817473490328035</v>
+      </c>
+      <c r="I15" t="n" s="306">
+        <v>0.5777180709199654</v>
+      </c>
+      <c r="J15" t="n" s="307">
+        <v>-0.44930807452624055</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="298">
+        <v>10200.0</v>
+      </c>
+      <c r="B16" t="n" s="299">
         <v>3.0</v>
       </c>
-      <c r="E4" t="n" s="303">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n" s="304">
+      <c r="C16" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D16" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F16" t="n" s="303">
+        <v>15.0</v>
+      </c>
+      <c r="G16" t="n" s="304">
+        <v>0.36991730407991813</v>
+      </c>
+      <c r="H16" t="n" s="305">
+        <v>-0.8088247038628009</v>
+      </c>
+      <c r="I16" t="n" s="306">
+        <v>0.3548259733874527</v>
+      </c>
+      <c r="J16" t="n" s="307">
+        <v>-0.8493262894476371</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="298">
+        <v>10201.0</v>
+      </c>
+      <c r="B17" t="n" s="299">
+        <v>5.0</v>
+      </c>
+      <c r="C17" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n" s="301">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F17" t="n" s="303">
+        <v>16.0</v>
+      </c>
+      <c r="G17" t="n" s="304">
+        <v>0.06175308558455149</v>
+      </c>
+      <c r="H17" t="n" s="305">
+        <v>-2.609511666554184</v>
+      </c>
+      <c r="I17" t="n" s="306">
+        <v>0.06164594135140218</v>
+      </c>
+      <c r="J17" t="n" s="307">
+        <v>-2.597935347929563</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="298">
+        <v>10202.0</v>
+      </c>
+      <c r="B18" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C18" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n" s="301">
         <v>3.0</v>
       </c>
-      <c r="G4" t="n" s="305">
+      <c r="E18" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F18" t="n" s="303">
+        <v>17.0</v>
+      </c>
+      <c r="G18" t="n" s="304">
+        <v>0.16271693348725383</v>
+      </c>
+      <c r="H18" t="n" s="305">
+        <v>-1.4620052184437382</v>
+      </c>
+      <c r="I18" t="n" s="306">
+        <v>0.16815880625654533</v>
+      </c>
+      <c r="J18" t="n" s="307">
+        <v>-1.443279738866876</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="298">
+        <v>10206.0</v>
+      </c>
+      <c r="B19" t="n" s="299">
         <v>3.0</v>
       </c>
-      <c r="H4" t="n" s="306">
-        <v>0.7129084089461335</v>
-      </c>
-      <c r="I4" t="n" s="307">
-        <v>-0.446309748478392</v>
-      </c>
-      <c r="J4" t="n" s="308">
-        <v>0.7244944981830694</v>
-      </c>
-      <c r="K4" t="n" s="309">
-        <v>-0.42575244193402106</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="299">
-        <v>10178.0</v>
-      </c>
-      <c r="B5" t="n" s="300">
+      <c r="C19" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D19" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E19" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F19" t="n" s="303">
+        <v>18.0</v>
+      </c>
+      <c r="G19" t="n" s="304">
+        <v>0.22721574586134843</v>
+      </c>
+      <c r="H19" t="n" s="305">
+        <v>-1.5435469434055404</v>
+      </c>
+      <c r="I19" t="n" s="306">
+        <v>0.223771535155427</v>
+      </c>
+      <c r="J19" t="n" s="307">
+        <v>-1.5847141025776006</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="298">
+        <v>10208.0</v>
+      </c>
+      <c r="B20" t="n" s="299">
         <v>5.0</v>
       </c>
-      <c r="C5" t="n" s="301">
+      <c r="C20" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D20" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="D5" t="n" s="302">
+      <c r="E20" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F20" t="n" s="303">
+        <v>19.0</v>
+      </c>
+      <c r="G20" t="n" s="304">
+        <v>0.5837517814770112</v>
+      </c>
+      <c r="H20" t="n" s="305">
+        <v>-0.3470889684765728</v>
+      </c>
+      <c r="I20" t="n" s="306">
+        <v>0.5467258895699675</v>
+      </c>
+      <c r="J20" t="n" s="307">
+        <v>-0.41213220235561565</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="298">
+        <v>10210.0</v>
+      </c>
+      <c r="B21" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D21" t="n" s="301">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n" s="302">
+        <v>3.0</v>
+      </c>
+      <c r="F21" t="n" s="303">
+        <v>20.0</v>
+      </c>
+      <c r="G21" t="n" s="304">
+        <v>1.554905385189353</v>
+      </c>
+      <c r="H21" t="n" s="305">
+        <v>0.8654657433186793</v>
+      </c>
+      <c r="I21" t="n" s="306">
+        <v>1.5063431787586277</v>
+      </c>
+      <c r="J21" t="n" s="307">
+        <v>0.8197743555923462</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="298">
+        <v>10213.0</v>
+      </c>
+      <c r="B22" t="n" s="299">
+        <v>7.0</v>
+      </c>
+      <c r="C22" t="n" s="300">
         <v>5.0</v>
       </c>
-      <c r="E5" t="n" s="303">
+      <c r="D22" t="n" s="301">
+        <v>6.0</v>
+      </c>
+      <c r="E22" t="n" s="302">
         <v>5.0</v>
       </c>
-      <c r="F5" t="n" s="304">
+      <c r="F22" t="n" s="303">
+        <v>21.0</v>
+      </c>
+      <c r="G22" t="n" s="304">
+        <v>0.3238886847000086</v>
+      </c>
+      <c r="H22" t="n" s="305">
+        <v>-1.3526849804515912</v>
+      </c>
+      <c r="I22" t="n" s="306">
+        <v>0.3300565644903679</v>
+      </c>
+      <c r="J22" t="n" s="307">
+        <v>-1.352967902210468</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="298">
+        <v>10214.0</v>
+      </c>
+      <c r="B23" t="n" s="299">
         <v>5.0</v>
       </c>
-      <c r="G5" t="n" s="305">
-        <v>4.0</v>
-      </c>
-      <c r="H5" t="n" s="306">
-        <v>0.07048466353312209</v>
-      </c>
-      <c r="I5" t="n" s="307">
-        <v>-2.7588175930238927</v>
-      </c>
-      <c r="J5" t="n" s="308">
-        <v>0.07083269615923954</v>
-      </c>
-      <c r="K5" t="n" s="309">
-        <v>-2.7609027884848043</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="299">
-        <v>10179.0</v>
-      </c>
-      <c r="B6" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C6" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E6" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F6" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G6" t="n" s="305">
+      <c r="C23" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D23" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="H6" t="n" s="306">
-        <v>0.03244554717475399</v>
-      </c>
-      <c r="I6" t="n" s="307">
-        <v>-2.605931569235715</v>
-      </c>
-      <c r="J6" t="n" s="308">
-        <v>0.032467859008995674</v>
-      </c>
-      <c r="K6" t="n" s="309">
-        <v>-2.600389177297286</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="299">
-        <v>10181.0</v>
-      </c>
-      <c r="B7" t="n" s="300">
+      <c r="E23" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F23" t="n" s="303">
+        <v>22.0</v>
+      </c>
+      <c r="G23" t="n" s="304">
+        <v>0.1483503539639163</v>
+      </c>
+      <c r="H23" t="n" s="305">
+        <v>-1.6182041328190553</v>
+      </c>
+      <c r="I23" t="n" s="306">
+        <v>0.14399415325482282</v>
+      </c>
+      <c r="J23" t="n" s="307">
+        <v>-1.6328440539686184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="298">
+        <v>10215.0</v>
+      </c>
+      <c r="B24" t="n" s="299">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D24" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E24" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F24" t="n" s="303">
+        <v>23.0</v>
+      </c>
+      <c r="G24" t="n" s="304">
+        <v>0.38129211257668505</v>
+      </c>
+      <c r="H24" t="n" s="305">
+        <v>-0.8830555761434185</v>
+      </c>
+      <c r="I24" t="n" s="306">
+        <v>0.37672279385516877</v>
+      </c>
+      <c r="J24" t="n" s="307">
+        <v>-0.9067844545715033</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="298">
+        <v>10216.0</v>
+      </c>
+      <c r="B25" t="n" s="299">
+        <v>7.0</v>
+      </c>
+      <c r="C25" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D25" t="n" s="301">
+        <v>7.0</v>
+      </c>
+      <c r="E25" t="n" s="302">
+        <v>2.0</v>
+      </c>
+      <c r="F25" t="n" s="303">
+        <v>24.0</v>
+      </c>
+      <c r="G25" t="n" s="304">
+        <v>4.2497766034809255</v>
+      </c>
+      <c r="H25" t="n" s="305">
+        <v>2.9005263778647965</v>
+      </c>
+      <c r="I25" t="n" s="306">
+        <v>4.29270617126583</v>
+      </c>
+      <c r="J25" t="n" s="307">
+        <v>2.91507163949275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="298">
+        <v>10217.0</v>
+      </c>
+      <c r="B26" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C26" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D26" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E26" t="n" s="302">
         <v>5.0</v>
       </c>
-      <c r="C7" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D7" t="n" s="302">
+      <c r="F26" t="n" s="303">
+        <v>25.0</v>
+      </c>
+      <c r="G26" t="n" s="304">
+        <v>0.4137554308050208</v>
+      </c>
+      <c r="H26" t="n" s="305">
+        <v>-0.8648626731571872</v>
+      </c>
+      <c r="I26" t="n" s="306">
+        <v>0.4168066575014707</v>
+      </c>
+      <c r="J26" t="n" s="307">
+        <v>-0.852232133749922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="298">
+        <v>10221.0</v>
+      </c>
+      <c r="B27" t="n" s="299">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n" s="300">
+        <v>3.0</v>
+      </c>
+      <c r="D27" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E27" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F27" t="n" s="303">
+        <v>26.0</v>
+      </c>
+      <c r="G27" t="n" s="304">
+        <v>0.38129211257668505</v>
+      </c>
+      <c r="H27" t="n" s="305">
+        <v>-0.8830555761434185</v>
+      </c>
+      <c r="I27" t="n" s="306">
+        <v>0.37672279385516877</v>
+      </c>
+      <c r="J27" t="n" s="307">
+        <v>-0.9067844545715033</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="298">
+        <v>10226.0</v>
+      </c>
+      <c r="B28" t="n" s="299">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n" s="300">
+        <v>6.0</v>
+      </c>
+      <c r="D28" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="E7" t="n" s="303">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G7" t="n" s="305">
+      <c r="E28" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F28" t="n" s="303">
+        <v>27.0</v>
+      </c>
+      <c r="G28" t="n" s="304">
+        <v>1.6614690753299515</v>
+      </c>
+      <c r="H28" t="n" s="305">
+        <v>1.0261407145714796</v>
+      </c>
+      <c r="I28" t="n" s="306">
+        <v>1.648750841079723</v>
+      </c>
+      <c r="J28" t="n" s="307">
+        <v>1.0111235421828009</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="298">
+        <v>10228.0</v>
+      </c>
+      <c r="B29" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D29" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E29" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F29" t="n" s="303">
+        <v>28.0</v>
+      </c>
+      <c r="G29" t="n" s="304">
+        <v>0.27920825181297854</v>
+      </c>
+      <c r="H29" t="n" s="305">
+        <v>-1.028474952530737</v>
+      </c>
+      <c r="I29" t="n" s="306">
+        <v>0.26210547892990793</v>
+      </c>
+      <c r="J29" t="n" s="307">
+        <v>-1.0751956102916962</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="298">
+        <v>10232.0</v>
+      </c>
+      <c r="B30" t="n" s="299">
+        <v>5.0</v>
+      </c>
+      <c r="C30" t="n" s="300">
+        <v>5.0</v>
+      </c>
+      <c r="D30" t="n" s="301">
+        <v>5.0</v>
+      </c>
+      <c r="E30" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F30" t="n" s="303">
+        <v>29.0</v>
+      </c>
+      <c r="G30" t="n" s="304">
+        <v>0.06175308558455149</v>
+      </c>
+      <c r="H30" t="n" s="305">
+        <v>-2.609511666554184</v>
+      </c>
+      <c r="I30" t="n" s="306">
+        <v>0.06164594135140218</v>
+      </c>
+      <c r="J30" t="n" s="307">
+        <v>-2.597935347929563</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="298">
+        <v>10233.0</v>
+      </c>
+      <c r="B31" t="n" s="299">
+        <v>5.0</v>
+      </c>
+      <c r="C31" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D31" t="n" s="301">
         <v>6.0</v>
       </c>
-      <c r="H7" t="n" s="306">
-        <v>1.8208685748761226</v>
-      </c>
-      <c r="I7" t="n" s="307">
-        <v>1.1897598667452889</v>
-      </c>
-      <c r="J7" t="n" s="308">
-        <v>1.8517017840563463</v>
-      </c>
-      <c r="K7" t="n" s="309">
-        <v>1.2208490344690957</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="299">
-        <v>10183.0</v>
-      </c>
-      <c r="B8" t="n" s="300">
-        <v>2.0</v>
-      </c>
-      <c r="C8" t="n" s="301">
+      <c r="E31" t="n" s="302">
+        <v>7.0</v>
+      </c>
+      <c r="F31" t="n" s="303">
+        <v>30.0</v>
+      </c>
+      <c r="G31" t="n" s="304">
+        <v>1.2733907143305891</v>
+      </c>
+      <c r="H31" t="n" s="305">
+        <v>0.6244294707946463</v>
+      </c>
+      <c r="I31" t="n" s="306">
+        <v>1.221329771579436</v>
+      </c>
+      <c r="J31" t="n" s="307">
+        <v>0.5484935727822932</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="298">
+        <v>10234.0</v>
+      </c>
+      <c r="B32" t="n" s="299">
+        <v>5.0</v>
+      </c>
+      <c r="C32" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D32" t="n" s="301">
+        <v>6.0</v>
+      </c>
+      <c r="E32" t="n" s="302">
+        <v>6.0</v>
+      </c>
+      <c r="F32" t="n" s="303">
+        <v>31.0</v>
+      </c>
+      <c r="G32" t="n" s="304">
+        <v>0.7067213541911231</v>
+      </c>
+      <c r="H32" t="n" s="305">
+        <v>-0.3429197665151128</v>
+      </c>
+      <c r="I32" t="n" s="306">
+        <v>0.6487419322258102</v>
+      </c>
+      <c r="J32" t="n" s="307">
+        <v>-0.46559570017317664</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="298">
+        <v>10237.0</v>
+      </c>
+      <c r="B33" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="C33" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D33" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E33" t="n" s="302">
         <v>3.0</v>
       </c>
-      <c r="D8" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E8" t="n" s="303">
+      <c r="F33" t="n" s="303">
+        <v>32.0</v>
+      </c>
+      <c r="G33" t="n" s="304">
+        <v>0.7500973871034602</v>
+      </c>
+      <c r="H33" t="n" s="305">
+        <v>-0.0745761718916988</v>
+      </c>
+      <c r="I33" t="n" s="306">
+        <v>0.7869092616694888</v>
+      </c>
+      <c r="J33" t="n" s="307">
+        <v>-0.018398099613299912</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="298">
+        <v>10238.0</v>
+      </c>
+      <c r="B34" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C34" t="n" s="300">
         <v>5.0</v>
       </c>
-      <c r="F8" t="n" s="304">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n" s="305">
-        <v>7.0</v>
-      </c>
-      <c r="H8" t="n" s="306">
-        <v>0.7971913136603817</v>
-      </c>
-      <c r="I8" t="n" s="307">
-        <v>-0.24967382948481312</v>
-      </c>
-      <c r="J8" t="n" s="308">
-        <v>0.8140882871798027</v>
-      </c>
-      <c r="K8" t="n" s="309">
-        <v>-0.21730751057302555</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="299">
-        <v>10185.0</v>
-      </c>
-      <c r="B9" t="n" s="300">
+      <c r="D34" t="n" s="301">
         <v>5.0</v>
       </c>
-      <c r="C9" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D9" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E9" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F9" t="n" s="304">
-        <v>3.0</v>
-      </c>
-      <c r="G9" t="n" s="305">
-        <v>8.0</v>
-      </c>
-      <c r="H9" t="n" s="306">
-        <v>0.5204130381101447</v>
-      </c>
-      <c r="I9" t="n" s="307">
-        <v>-0.5939704184603708</v>
-      </c>
-      <c r="J9" t="n" s="308">
-        <v>0.5291355467681647</v>
-      </c>
-      <c r="K9" t="n" s="309">
-        <v>-0.5697015806578116</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="299">
-        <v>10186.0</v>
-      </c>
-      <c r="B10" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C10" t="n" s="301">
-        <v>6.0</v>
-      </c>
-      <c r="D10" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E10" t="n" s="303">
-        <v>1.0</v>
-      </c>
-      <c r="F10" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G10" t="n" s="305">
-        <v>9.0</v>
-      </c>
-      <c r="H10" t="n" s="306">
-        <v>1.858768452541566</v>
-      </c>
-      <c r="I10" t="n" s="307">
-        <v>1.274491863860307</v>
-      </c>
-      <c r="J10" t="n" s="308">
-        <v>1.815779036530934</v>
-      </c>
-      <c r="K10" t="n" s="309">
-        <v>1.2352376177603117</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="299">
-        <v>10187.0</v>
-      </c>
-      <c r="B11" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C11" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D11" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E11" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F11" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="n" s="305">
-        <v>10.0</v>
-      </c>
-      <c r="H11" t="n" s="306">
-        <v>0.23497812894949588</v>
-      </c>
-      <c r="I11" t="n" s="307">
-        <v>-1.3457934706483399</v>
-      </c>
-      <c r="J11" t="n" s="308">
-        <v>0.24908822801339778</v>
-      </c>
-      <c r="K11" t="n" s="309">
-        <v>-1.2885734042290697</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="299">
-        <v>10188.0</v>
-      </c>
-      <c r="B12" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C12" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E12" t="n" s="303">
-        <v>3.0</v>
-      </c>
-      <c r="F12" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G12" t="n" s="305">
-        <v>11.0</v>
-      </c>
-      <c r="H12" t="n" s="306">
-        <v>0.6304225358951329</v>
-      </c>
-      <c r="I12" t="n" s="307">
-        <v>-0.34953270767264666</v>
-      </c>
-      <c r="J12" t="n" s="308">
-        <v>0.6166954129960789</v>
-      </c>
-      <c r="K12" t="n" s="309">
-        <v>-0.3721277922132108</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="299">
-        <v>10193.0</v>
-      </c>
-      <c r="B13" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="C13" t="n" s="301">
-        <v>6.0</v>
-      </c>
-      <c r="D13" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E13" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F13" t="n" s="304">
-        <v>3.0</v>
-      </c>
-      <c r="G13" t="n" s="305">
-        <v>12.0</v>
-      </c>
-      <c r="H13" t="n" s="306">
-        <v>0.7732547284386782</v>
-      </c>
-      <c r="I13" t="n" s="307">
-        <v>-0.10382171230395323</v>
-      </c>
-      <c r="J13" t="n" s="308">
-        <v>0.765800689454539</v>
-      </c>
-      <c r="K13" t="n" s="309">
-        <v>-0.11517247508328812</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="299">
-        <v>10196.0</v>
-      </c>
-      <c r="B14" t="n" s="300">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D14" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E14" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F14" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G14" t="n" s="305">
-        <v>13.0</v>
-      </c>
-      <c r="H14" t="n" s="306">
-        <v>1.017972421184101</v>
-      </c>
-      <c r="I14" t="n" s="307">
-        <v>0.21817919527658994</v>
-      </c>
-      <c r="J14" t="n" s="308">
-        <v>1.03742113851387</v>
-      </c>
-      <c r="K14" t="n" s="309">
-        <v>0.251064918336066</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="299">
-        <v>10197.0</v>
-      </c>
-      <c r="B15" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C15" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D15" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E15" t="n" s="303">
-        <v>2.0</v>
-      </c>
-      <c r="F15" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G15" t="n" s="305">
-        <v>14.0</v>
-      </c>
-      <c r="H15" t="n" s="306">
-        <v>0.8257141742622359</v>
-      </c>
-      <c r="I15" t="n" s="307">
-        <v>-0.037748041957543</v>
-      </c>
-      <c r="J15" t="n" s="308">
-        <v>0.84213308064969</v>
-      </c>
-      <c r="K15" t="n" s="309">
-        <v>-0.01179266947958929</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="299">
-        <v>10200.0</v>
-      </c>
-      <c r="B16" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C16" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D16" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E16" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F16" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G16" t="n" s="305">
-        <v>15.0</v>
-      </c>
-      <c r="H16" t="n" s="306">
-        <v>0.5774792280787812</v>
-      </c>
-      <c r="I16" t="n" s="307">
-        <v>-0.4593932422596242</v>
-      </c>
-      <c r="J16" t="n" s="308">
-        <v>0.56388157751206</v>
-      </c>
-      <c r="K16" t="n" s="309">
-        <v>-0.4852767423346689</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="299">
-        <v>10201.0</v>
-      </c>
-      <c r="B17" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C17" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E17" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F17" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G17" t="n" s="305">
-        <v>16.0</v>
-      </c>
-      <c r="H17" t="n" s="306">
-        <v>0.16051960311273147</v>
-      </c>
-      <c r="I17" t="n" s="307">
-        <v>-1.9473860242169678</v>
-      </c>
-      <c r="J17" t="n" s="308">
-        <v>0.13659774584730736</v>
-      </c>
-      <c r="K17" t="n" s="309">
-        <v>-2.074731691634874</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="299">
-        <v>10202.0</v>
-      </c>
-      <c r="B18" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C18" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D18" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E18" t="n" s="303">
-        <v>3.0</v>
-      </c>
-      <c r="F18" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G18" t="n" s="305">
-        <v>17.0</v>
-      </c>
-      <c r="H18" t="n" s="306">
-        <v>0.14458160644368384</v>
-      </c>
-      <c r="I18" t="n" s="307">
-        <v>-1.83068503387015</v>
-      </c>
-      <c r="J18" t="n" s="308">
-        <v>0.14883874436643216</v>
-      </c>
-      <c r="K18" t="n" s="309">
-        <v>-1.8126099011919379</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="299">
-        <v>10206.0</v>
-      </c>
-      <c r="B19" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C19" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D19" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E19" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F19" t="n" s="304">
-        <v>3.0</v>
-      </c>
-      <c r="G19" t="n" s="305">
-        <v>18.0</v>
-      </c>
-      <c r="H19" t="n" s="306">
-        <v>0.6344043496409826</v>
-      </c>
-      <c r="I19" t="n" s="307">
-        <v>-0.43130173837885466</v>
-      </c>
-      <c r="J19" t="n" s="308">
-        <v>0.624616353796508</v>
-      </c>
-      <c r="K19" t="n" s="309">
-        <v>-0.45703666144436395</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="299">
-        <v>10208.0</v>
-      </c>
-      <c r="B20" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="C20" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D20" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E20" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F20" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G20" t="n" s="305">
-        <v>19.0</v>
-      </c>
-      <c r="H20" t="n" s="306">
-        <v>0.6104967356840836</v>
-      </c>
-      <c r="I20" t="n" s="307">
-        <v>-0.39431346336738415</v>
-      </c>
-      <c r="J20" t="n" s="308">
-        <v>0.6025752422922569</v>
-      </c>
-      <c r="K20" t="n" s="309">
-        <v>-0.4082001039823896</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="299">
-        <v>10210.0</v>
-      </c>
-      <c r="B21" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C21" t="n" s="301">
-        <v>6.0</v>
-      </c>
-      <c r="D21" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E21" t="n" s="303">
-        <v>2.0</v>
-      </c>
-      <c r="F21" t="n" s="304">
-        <v>3.0</v>
-      </c>
-      <c r="G21" t="n" s="305">
-        <v>20.0</v>
-      </c>
-      <c r="H21" t="n" s="306">
-        <v>1.2029857746141537</v>
-      </c>
-      <c r="I21" t="n" s="307">
-        <v>0.5061543395410366</v>
-      </c>
-      <c r="J21" t="n" s="308">
-        <v>1.1750986136766952</v>
-      </c>
-      <c r="K21" t="n" s="309">
-        <v>0.4702416259302689</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="299">
-        <v>10213.0</v>
-      </c>
-      <c r="B22" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="C22" t="n" s="301">
-        <v>7.0</v>
-      </c>
-      <c r="D22" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E22" t="n" s="303">
-        <v>6.0</v>
-      </c>
-      <c r="F22" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G22" t="n" s="305">
-        <v>21.0</v>
-      </c>
-      <c r="H22" t="n" s="306">
-        <v>1.4272754155602265</v>
-      </c>
-      <c r="I22" t="n" s="307">
-        <v>0.857365387082291</v>
-      </c>
-      <c r="J22" t="n" s="308">
-        <v>1.1794038850644848</v>
-      </c>
-      <c r="K22" t="n" s="309">
-        <v>0.48970222378533523</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="299">
-        <v>10214.0</v>
-      </c>
-      <c r="B23" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C23" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D23" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E23" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F23" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G23" t="n" s="305">
-        <v>22.0</v>
-      </c>
-      <c r="H23" t="n" s="306">
-        <v>0.20847136813919437</v>
-      </c>
-      <c r="I23" t="n" s="307">
-        <v>-1.5855850019800548</v>
-      </c>
-      <c r="J23" t="n" s="308">
-        <v>0.19064244097658384</v>
-      </c>
-      <c r="K23" t="n" s="309">
-        <v>-1.6525605363642524</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="299">
-        <v>10215.0</v>
-      </c>
-      <c r="B24" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C24" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D24" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E24" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F24" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G24" t="n" s="305">
-        <v>23.0</v>
-      </c>
-      <c r="H24" t="n" s="306">
-        <v>0.3525673783212136</v>
-      </c>
-      <c r="I24" t="n" s="307">
-        <v>-1.1352392395286262</v>
-      </c>
-      <c r="J24" t="n" s="308">
-        <v>0.34193580216722125</v>
-      </c>
-      <c r="K24" t="n" s="309">
-        <v>-1.177827832082899</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="299">
-        <v>10216.0</v>
-      </c>
-      <c r="B25" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C25" t="n" s="301">
-        <v>7.0</v>
-      </c>
-      <c r="D25" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E25" t="n" s="303">
-        <v>7.0</v>
-      </c>
-      <c r="F25" t="n" s="304">
-        <v>2.0</v>
-      </c>
-      <c r="G25" t="n" s="305">
-        <v>24.0</v>
-      </c>
-      <c r="H25" t="n" s="306">
-        <v>3.4221250905402463</v>
-      </c>
-      <c r="I25" t="n" s="307">
-        <v>2.6087499815464463</v>
-      </c>
-      <c r="J25" t="n" s="308">
-        <v>3.6177745823426704</v>
-      </c>
-      <c r="K25" t="n" s="309">
-        <v>2.7353404939061776</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="299">
-        <v>10217.0</v>
-      </c>
-      <c r="B26" t="n" s="300">
-        <v>6.0</v>
-      </c>
-      <c r="C26" t="n" s="301">
-        <v>6.0</v>
-      </c>
-      <c r="D26" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E26" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F26" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G26" t="n" s="305">
-        <v>25.0</v>
-      </c>
-      <c r="H26" t="n" s="306">
-        <v>0.8382394416937446</v>
-      </c>
-      <c r="I26" t="n" s="307">
-        <v>-0.08934403635217811</v>
-      </c>
-      <c r="J26" t="n" s="308">
-        <v>0.7139717800749533</v>
-      </c>
-      <c r="K26" t="n" s="309">
-        <v>-0.3380547797660779</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="299">
-        <v>10221.0</v>
-      </c>
-      <c r="B27" t="n" s="300">
-        <v>2.0</v>
-      </c>
-      <c r="C27" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D27" t="n" s="302">
-        <v>3.0</v>
-      </c>
-      <c r="E27" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F27" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G27" t="n" s="305">
-        <v>26.0</v>
-      </c>
-      <c r="H27" t="n" s="306">
-        <v>0.48502866334270783</v>
-      </c>
-      <c r="I27" t="n" s="307">
-        <v>-0.9647569461892022</v>
-      </c>
-      <c r="J27" t="n" s="308">
-        <v>0.49402907151955167</v>
-      </c>
-      <c r="K27" t="n" s="309">
-        <v>-0.9532873004825378</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="299">
-        <v>10226.0</v>
-      </c>
-      <c r="B28" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C28" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="D28" t="n" s="302">
-        <v>6.0</v>
-      </c>
-      <c r="E28" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F28" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G28" t="n" s="305">
-        <v>27.0</v>
-      </c>
-      <c r="H28" t="n" s="306">
-        <v>1.3852765630764723</v>
-      </c>
-      <c r="I28" t="n" s="307">
-        <v>0.7352198133883668</v>
-      </c>
-      <c r="J28" t="n" s="308">
-        <v>1.3996694650964867</v>
-      </c>
-      <c r="K28" t="n" s="309">
-        <v>0.7508402941676217</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="299">
-        <v>10228.0</v>
-      </c>
-      <c r="B29" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C29" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D29" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E29" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F29" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G29" t="n" s="305">
-        <v>28.0</v>
-      </c>
-      <c r="H29" t="n" s="306">
-        <v>0.21910742046620077</v>
-      </c>
-      <c r="I29" t="n" s="307">
-        <v>-1.4047217728543497</v>
-      </c>
-      <c r="J29" t="n" s="308">
-        <v>0.2066061892955976</v>
-      </c>
-      <c r="K29" t="n" s="309">
-        <v>-1.4455356979649765</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="299">
-        <v>10232.0</v>
-      </c>
-      <c r="B30" t="n" s="300">
-        <v>5.0</v>
-      </c>
-      <c r="C30" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D30" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E30" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F30" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="G30" t="n" s="305">
-        <v>29.0</v>
-      </c>
-      <c r="H30" t="n" s="306">
-        <v>0.07048466353312209</v>
-      </c>
-      <c r="I30" t="n" s="307">
-        <v>-2.7588175930238927</v>
-      </c>
-      <c r="J30" t="n" s="308">
-        <v>0.07083269615923954</v>
-      </c>
-      <c r="K30" t="n" s="309">
-        <v>-2.7609027884848043</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="299">
-        <v>10233.0</v>
-      </c>
-      <c r="B31" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="C31" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D31" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E31" t="n" s="303">
-        <v>6.0</v>
-      </c>
-      <c r="F31" t="n" s="304">
-        <v>7.0</v>
-      </c>
-      <c r="G31" t="n" s="305">
-        <v>30.0</v>
-      </c>
-      <c r="H31" t="n" s="306">
-        <v>1.9738733360516854</v>
-      </c>
-      <c r="I31" t="n" s="307">
-        <v>1.4803478184680754</v>
-      </c>
-      <c r="J31" t="n" s="308">
-        <v>1.8549572707923132</v>
-      </c>
-      <c r="K31" t="n" s="309">
-        <v>1.3524501940753277</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="299">
-        <v>10234.0</v>
-      </c>
-      <c r="B32" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C32" t="n" s="301">
-        <v>5.0</v>
-      </c>
-      <c r="D32" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E32" t="n" s="303">
-        <v>6.0</v>
-      </c>
-      <c r="F32" t="n" s="304">
-        <v>6.0</v>
-      </c>
-      <c r="G32" t="n" s="305">
-        <v>31.0</v>
-      </c>
-      <c r="H32" t="n" s="306">
-        <v>0.7340335773402408</v>
-      </c>
-      <c r="I32" t="n" s="307">
-        <v>-0.2949828771420314</v>
-      </c>
-      <c r="J32" t="n" s="308">
-        <v>0.7121389113746778</v>
-      </c>
-      <c r="K32" t="n" s="309">
-        <v>-0.3419184341732563</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="299">
-        <v>10237.0</v>
-      </c>
-      <c r="B33" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="C33" t="n" s="301">
-        <v>6.0</v>
-      </c>
-      <c r="D33" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="E33" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="F33" t="n" s="304">
-        <v>3.0</v>
-      </c>
-      <c r="G33" t="n" s="305">
-        <v>32.0</v>
-      </c>
-      <c r="H33" t="n" s="306">
-        <v>0.7732547284386782</v>
-      </c>
-      <c r="I33" t="n" s="307">
-        <v>-0.10382171230395323</v>
-      </c>
-      <c r="J33" t="n" s="308">
-        <v>0.765800689454539</v>
-      </c>
-      <c r="K33" t="n" s="309">
-        <v>-0.11517247508328812</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="299">
-        <v>10238.0</v>
-      </c>
-      <c r="B34" t="n" s="300">
-        <v>4.0</v>
-      </c>
-      <c r="C34" t="n" s="301">
-        <v>4.0</v>
-      </c>
-      <c r="D34" t="n" s="302">
-        <v>5.0</v>
-      </c>
-      <c r="E34" t="n" s="303">
-        <v>5.0</v>
-      </c>
-      <c r="F34" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="G34" t="n" s="305">
+      <c r="E34" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="F34" t="n" s="303">
         <v>33.0</v>
       </c>
-      <c r="H34" t="n" s="306">
-        <v>0.31632365821155695</v>
-      </c>
-      <c r="I34" t="n" s="307">
-        <v>-1.1156236420051784</v>
-      </c>
-      <c r="J34" t="n" s="308">
-        <v>0.3180628278643905</v>
-      </c>
-      <c r="K34" t="n" s="309">
-        <v>-1.1023068227776194</v>
+      <c r="G34" t="n" s="304">
+        <v>0.37434960640951864</v>
+      </c>
+      <c r="H34" t="n" s="305">
+        <v>-0.8579983838400695</v>
+      </c>
+      <c r="I34" t="n" s="306">
+        <v>0.3774988357539598</v>
+      </c>
+      <c r="J34" t="n" s="307">
+        <v>-0.8461037033569232</v>
       </c>
     </row>
   </sheetData>
@@ -7507,1401 +6651,1298 @@
     <col min="11" max="11" width="25.0" customWidth="true"/>
     <col min="12" max="12" width="25.0" customWidth="true"/>
     <col min="13" max="13" width="25.0" customWidth="true"/>
-    <col min="14" max="14" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="315">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s" s="315">
+      <c r="A1" t="s" s="313">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C1" t="s" s="315">
+      <c r="C1" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D1" t="s" s="315">
+      <c r="D1" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E1" t="s" s="315">
+      <c r="E1" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F1" t="s" s="315">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s" s="315">
+      <c r="F1" t="s" s="313">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s" s="313">
         <v>84</v>
       </c>
-      <c r="H1" t="s" s="315">
+      <c r="H1" t="s" s="313">
         <v>85</v>
       </c>
-      <c r="I1" t="s" s="315">
+      <c r="I1" t="s" s="313">
         <v>86</v>
       </c>
-      <c r="J1" t="s" s="315">
+      <c r="J1" t="s" s="313">
         <v>87</v>
       </c>
-      <c r="K1" t="s" s="315">
+      <c r="K1" t="s" s="313">
         <v>88</v>
       </c>
-      <c r="L1" t="s" s="315">
+      <c r="L1" t="s" s="313">
         <v>89</v>
       </c>
-      <c r="M1" t="s" s="315">
-        <v>90</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="316">
+      <c r="A2" t="n" s="314">
         <v>10170.0</v>
       </c>
-      <c r="B2" t="n" s="317">
+      <c r="B2" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n" s="316">
         <v>5.0</v>
       </c>
-      <c r="C2" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D2" t="n" s="319">
+      <c r="D2" t="n" s="317">
         <v>5.0</v>
       </c>
-      <c r="E2" t="n" s="320">
+      <c r="E2" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n" s="319">
+        <v>10170.0</v>
+      </c>
+      <c r="G2" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H2" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I2" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K2" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L2" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="314">
+        <v>10171.0</v>
+      </c>
+      <c r="B3" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n" s="316">
         <v>5.0</v>
       </c>
-      <c r="F2" t="n" s="321">
+      <c r="D3" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n" s="319">
+        <v>10171.0</v>
+      </c>
+      <c r="G3" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H3" t="n" s="321">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J3" t="n" s="323">
+        <v>0.7509889977781006</v>
+      </c>
+      <c r="K3" t="n" s="324">
+        <v>0.48604705623974476</v>
+      </c>
+      <c r="L3" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="314">
+        <v>10174.0</v>
+      </c>
+      <c r="B4" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="316">
         <v>3.0</v>
       </c>
-      <c r="G2" t="n" s="322">
+      <c r="D4" t="n" s="317">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n" s="323">
+      <c r="E4" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F4" t="n" s="319">
+        <v>10174.0</v>
+      </c>
+      <c r="G4" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H4" t="n" s="321">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J4" t="n" s="323">
+        <v>-1.2358565924158207</v>
+      </c>
+      <c r="K4" t="n" s="324">
+        <v>0.41918087085847155</v>
+      </c>
+      <c r="L4" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="314">
+        <v>10178.0</v>
+      </c>
+      <c r="B5" t="n" s="315">
         <v>5.0</v>
       </c>
-      <c r="I2" t="n" s="324">
+      <c r="C5" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F5" t="n" s="319">
+        <v>10178.0</v>
+      </c>
+      <c r="G5" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n" s="321">
+        <v>20.0</v>
+      </c>
+      <c r="I5" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J5" t="n" s="323">
+        <v>0.7509889977781006</v>
+      </c>
+      <c r="K5" t="n" s="324">
+        <v>0.48604705623974476</v>
+      </c>
+      <c r="L5" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="314">
+        <v>10179.0</v>
+      </c>
+      <c r="B6" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F6" t="n" s="319">
+        <v>10179.0</v>
+      </c>
+      <c r="G6" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H6" t="n" s="321">
+        <v>16.0</v>
+      </c>
+      <c r="I6" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="n" s="323">
+        <v>-0.24821267163553495</v>
+      </c>
+      <c r="K6" t="n" s="324">
+        <v>0.48742891023622487</v>
+      </c>
+      <c r="L6" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="314">
+        <v>10181.0</v>
+      </c>
+      <c r="B7" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n" s="319">
+        <v>10181.0</v>
+      </c>
+      <c r="G7" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H7" t="n" s="321">
+        <v>14.0</v>
+      </c>
+      <c r="I7" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J7" t="n" s="323">
+        <v>-0.7105675856923686</v>
+      </c>
+      <c r="K7" t="n" s="324">
+        <v>0.45086038808644496</v>
+      </c>
+      <c r="L7" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="314">
+        <v>10183.0</v>
+      </c>
+      <c r="B8" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E8" t="n" s="318">
+        <v>2.0</v>
+      </c>
+      <c r="F8" t="n" s="319">
+        <v>10183.0</v>
+      </c>
+      <c r="G8" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H8" t="n" s="321">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J8" t="n" s="323">
+        <v>-0.9011646241670594</v>
+      </c>
+      <c r="K8" t="n" s="324">
+        <v>0.4347703686525057</v>
+      </c>
+      <c r="L8" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="314">
+        <v>10185.0</v>
+      </c>
+      <c r="B9" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C9" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E9" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="n" s="319">
+        <v>10185.0</v>
+      </c>
+      <c r="G9" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H9" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I9" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J9" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K9" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L9" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="314">
+        <v>10186.0</v>
+      </c>
+      <c r="B10" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C10" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="319">
+        <v>10186.0</v>
+      </c>
+      <c r="G10" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H10" t="n" s="321">
+        <v>14.0</v>
+      </c>
+      <c r="I10" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J10" t="n" s="323">
+        <v>-0.7105675856923686</v>
+      </c>
+      <c r="K10" t="n" s="324">
+        <v>0.45086038808644496</v>
+      </c>
+      <c r="L10" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="314">
+        <v>10187.0</v>
+      </c>
+      <c r="B11" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C11" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E11" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F11" t="n" s="319">
+        <v>10187.0</v>
+      </c>
+      <c r="G11" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H11" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I11" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J11" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K11" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L11" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="314">
+        <v>10188.0</v>
+      </c>
+      <c r="B12" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n" s="317">
+        <v>3.0</v>
+      </c>
+      <c r="E12" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F12" t="n" s="319">
+        <v>10188.0</v>
+      </c>
+      <c r="G12" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H12" t="n" s="321">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J12" t="n" s="323">
+        <v>-0.24821267163553495</v>
+      </c>
+      <c r="K12" t="n" s="324">
+        <v>0.48742891023622487</v>
+      </c>
+      <c r="L12" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="314">
+        <v>10193.0</v>
+      </c>
+      <c r="B13" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C13" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E13" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n" s="319">
+        <v>10193.0</v>
+      </c>
+      <c r="G13" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H13" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I13" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J13" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K13" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L13" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="314">
+        <v>10196.0</v>
+      </c>
+      <c r="B14" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E14" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F14" t="n" s="319">
+        <v>10196.0</v>
+      </c>
+      <c r="G14" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H14" t="n" s="321">
+        <v>15.0</v>
+      </c>
+      <c r="I14" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J14" t="n" s="323">
+        <v>-0.49394158914350716</v>
+      </c>
+      <c r="K14" t="n" s="324">
+        <v>0.4701727819104059</v>
+      </c>
+      <c r="L14" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="314">
+        <v>10197.0</v>
+      </c>
+      <c r="B15" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D15" t="n" s="317">
+        <v>2.0</v>
+      </c>
+      <c r="E15" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F15" t="n" s="319">
+        <v>10197.0</v>
+      </c>
+      <c r="G15" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H15" t="n" s="321">
+        <v>14.0</v>
+      </c>
+      <c r="I15" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J15" t="n" s="323">
+        <v>-0.7105675856923686</v>
+      </c>
+      <c r="K15" t="n" s="324">
+        <v>0.45086038808644496</v>
+      </c>
+      <c r="L15" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="314">
+        <v>10200.0</v>
+      </c>
+      <c r="B16" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C16" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D16" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F16" t="n" s="319">
+        <v>10200.0</v>
+      </c>
+      <c r="G16" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H16" t="n" s="321">
+        <v>15.0</v>
+      </c>
+      <c r="I16" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J16" t="n" s="323">
+        <v>-0.49394158914350716</v>
+      </c>
+      <c r="K16" t="n" s="324">
+        <v>0.4701727819104059</v>
+      </c>
+      <c r="L16" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="314">
+        <v>10201.0</v>
+      </c>
+      <c r="B17" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C17" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F17" t="n" s="319">
+        <v>10201.0</v>
+      </c>
+      <c r="G17" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H17" t="n" s="321">
+        <v>20.0</v>
+      </c>
+      <c r="I17" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J17" t="n" s="323">
+        <v>0.7509889977781006</v>
+      </c>
+      <c r="K17" t="n" s="324">
+        <v>0.48604705623974476</v>
+      </c>
+      <c r="L17" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="314">
+        <v>10202.0</v>
+      </c>
+      <c r="B18" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C18" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n" s="317">
+        <v>3.0</v>
+      </c>
+      <c r="E18" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F18" t="n" s="319">
+        <v>10202.0</v>
+      </c>
+      <c r="G18" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H18" t="n" s="321">
+        <v>15.0</v>
+      </c>
+      <c r="I18" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J18" t="n" s="323">
+        <v>-0.49394158914350716</v>
+      </c>
+      <c r="K18" t="n" s="324">
+        <v>0.4701727819104059</v>
+      </c>
+      <c r="L18" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="314">
+        <v>10206.0</v>
+      </c>
+      <c r="B19" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C19" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D19" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E19" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F19" t="n" s="319">
+        <v>10206.0</v>
+      </c>
+      <c r="G19" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H19" t="n" s="321">
+        <v>13.0</v>
+      </c>
+      <c r="I19" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J19" t="n" s="323">
+        <v>-0.9011646241670594</v>
+      </c>
+      <c r="K19" t="n" s="324">
+        <v>0.4347703686525057</v>
+      </c>
+      <c r="L19" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="314">
+        <v>10208.0</v>
+      </c>
+      <c r="B20" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C20" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D20" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E20" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F20" t="n" s="319">
+        <v>10208.0</v>
+      </c>
+      <c r="G20" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H20" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I20" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J20" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K20" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L20" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="314">
+        <v>10210.0</v>
+      </c>
+      <c r="B21" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D21" t="n" s="317">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F21" t="n" s="319">
+        <v>10210.0</v>
+      </c>
+      <c r="G21" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H21" t="n" s="321">
+        <v>15.0</v>
+      </c>
+      <c r="I21" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J21" t="n" s="323">
+        <v>-0.49394158914350716</v>
+      </c>
+      <c r="K21" t="n" s="324">
+        <v>0.4701727819104059</v>
+      </c>
+      <c r="L21" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="314">
+        <v>10213.0</v>
+      </c>
+      <c r="B22" t="n" s="315">
+        <v>7.0</v>
+      </c>
+      <c r="C22" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D22" t="n" s="317">
+        <v>6.0</v>
+      </c>
+      <c r="E22" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F22" t="n" s="319">
+        <v>10213.0</v>
+      </c>
+      <c r="G22" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H22" t="n" s="321">
+        <v>23.0</v>
+      </c>
+      <c r="I22" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J22" t="n" s="323">
+        <v>1.4262566914250476</v>
+      </c>
+      <c r="K22" t="n" s="324">
+        <v>0.5174541429319846</v>
+      </c>
+      <c r="L22" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="314">
+        <v>10214.0</v>
+      </c>
+      <c r="B23" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C23" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D23" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E23" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F23" t="n" s="319">
+        <v>10214.0</v>
+      </c>
+      <c r="G23" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H23" t="n" s="321">
+        <v>18.0</v>
+      </c>
+      <c r="I23" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J23" t="n" s="323">
+        <v>0.27533387470763454</v>
+      </c>
+      <c r="K23" t="n" s="324">
+        <v>0.494856047306806</v>
+      </c>
+      <c r="L23" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="314">
+        <v>10215.0</v>
+      </c>
+      <c r="B24" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D24" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E24" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F24" t="n" s="319">
+        <v>10215.0</v>
+      </c>
+      <c r="G24" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H24" t="n" s="321">
+        <v>14.0</v>
+      </c>
+      <c r="I24" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J24" t="n" s="323">
+        <v>-0.7105675856923686</v>
+      </c>
+      <c r="K24" t="n" s="324">
+        <v>0.45086038808644496</v>
+      </c>
+      <c r="L24" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="314">
+        <v>10216.0</v>
+      </c>
+      <c r="B25" t="n" s="315">
+        <v>7.0</v>
+      </c>
+      <c r="C25" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D25" t="n" s="317">
+        <v>7.0</v>
+      </c>
+      <c r="E25" t="n" s="318">
+        <v>2.0</v>
+      </c>
+      <c r="F25" t="n" s="319">
+        <v>10216.0</v>
+      </c>
+      <c r="G25" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H25" t="n" s="321">
+        <v>19.0</v>
+      </c>
+      <c r="I25" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J25" t="n" s="323">
+        <v>0.5203987443460131</v>
+      </c>
+      <c r="K25" t="n" s="324">
+        <v>0.4896991340612124</v>
+      </c>
+      <c r="L25" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="314">
+        <v>10217.0</v>
+      </c>
+      <c r="B26" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C26" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D26" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E26" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F26" t="n" s="319">
+        <v>10217.0</v>
+      </c>
+      <c r="G26" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H26" t="n" s="321">
+        <v>19.0</v>
+      </c>
+      <c r="I26" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J26" t="n" s="323">
+        <v>0.5203987443460131</v>
+      </c>
+      <c r="K26" t="n" s="324">
+        <v>0.4896991340612124</v>
+      </c>
+      <c r="L26" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="314">
+        <v>10221.0</v>
+      </c>
+      <c r="B27" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n" s="316">
+        <v>3.0</v>
+      </c>
+      <c r="D27" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E27" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F27" t="n" s="319">
+        <v>10221.0</v>
+      </c>
+      <c r="G27" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H27" t="n" s="321">
+        <v>14.0</v>
+      </c>
+      <c r="I27" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J27" t="n" s="323">
+        <v>-0.7105675856923686</v>
+      </c>
+      <c r="K27" t="n" s="324">
+        <v>0.45086038808644496</v>
+      </c>
+      <c r="L27" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="314">
+        <v>10226.0</v>
+      </c>
+      <c r="B28" t="n" s="315">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n" s="316">
+        <v>6.0</v>
+      </c>
+      <c r="D28" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E28" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F28" t="n" s="319">
+        <v>10226.0</v>
+      </c>
+      <c r="G28" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H28" t="n" s="321">
+        <v>19.0</v>
+      </c>
+      <c r="I28" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J28" t="n" s="323">
+        <v>0.5203987443460131</v>
+      </c>
+      <c r="K28" t="n" s="324">
+        <v>0.4896991340612124</v>
+      </c>
+      <c r="L28" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="314">
+        <v>10228.0</v>
+      </c>
+      <c r="B29" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D29" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E29" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F29" t="n" s="319">
+        <v>10228.0</v>
+      </c>
+      <c r="G29" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H29" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I29" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J29" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K29" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L29" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="314">
+        <v>10232.0</v>
+      </c>
+      <c r="B30" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C30" t="n" s="316">
+        <v>5.0</v>
+      </c>
+      <c r="D30" t="n" s="317">
+        <v>5.0</v>
+      </c>
+      <c r="E30" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F30" t="n" s="319">
+        <v>10232.0</v>
+      </c>
+      <c r="G30" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H30" t="n" s="321">
+        <v>20.0</v>
+      </c>
+      <c r="I30" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J30" t="n" s="323">
+        <v>0.7509889977781006</v>
+      </c>
+      <c r="K30" t="n" s="324">
+        <v>0.48604705623974476</v>
+      </c>
+      <c r="L30" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="314">
+        <v>10233.0</v>
+      </c>
+      <c r="B31" t="n" s="315">
+        <v>5.0</v>
+      </c>
+      <c r="C31" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D31" t="n" s="317">
+        <v>6.0</v>
+      </c>
+      <c r="E31" t="n" s="318">
+        <v>7.0</v>
+      </c>
+      <c r="F31" t="n" s="319">
+        <v>10233.0</v>
+      </c>
+      <c r="G31" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H31" t="n" s="321">
         <v>22.0</v>
       </c>
-      <c r="J2" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K2" t="n" s="326">
-        <v>0.18486577396129877</v>
-      </c>
-      <c r="L2" t="n" s="327">
-        <v>0.4460107555735023</v>
-      </c>
-      <c r="M2" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="316">
-        <v>10171.0</v>
-      </c>
-      <c r="B3" t="n" s="317">
+      <c r="I31" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J31" t="n" s="323">
+        <v>1.1948803850188727</v>
+      </c>
+      <c r="K31" t="n" s="324">
+        <v>0.49685418416526633</v>
+      </c>
+      <c r="L31" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="314">
+        <v>10234.0</v>
+      </c>
+      <c r="B32" t="n" s="315">
         <v>5.0</v>
       </c>
-      <c r="C3" t="n" s="318">
+      <c r="C32" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D32" t="n" s="317">
         <v>6.0</v>
       </c>
-      <c r="D3" t="n" s="319">
+      <c r="E32" t="n" s="318">
+        <v>6.0</v>
+      </c>
+      <c r="F32" t="n" s="319">
+        <v>10234.0</v>
+      </c>
+      <c r="G32" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H32" t="n" s="321">
+        <v>21.0</v>
+      </c>
+      <c r="I32" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J32" t="n" s="323">
+        <v>0.973147635129447</v>
+      </c>
+      <c r="K32" t="n" s="324">
+        <v>0.4875192347138689</v>
+      </c>
+      <c r="L32" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="314">
+        <v>10237.0</v>
+      </c>
+      <c r="B33" t="n" s="315">
+        <v>6.0</v>
+      </c>
+      <c r="C33" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D33" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E33" t="n" s="318">
+        <v>3.0</v>
+      </c>
+      <c r="F33" t="n" s="319">
+        <v>10237.0</v>
+      </c>
+      <c r="G33" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H33" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I33" t="n" s="322">
+        <v>27.0</v>
+      </c>
+      <c r="J33" t="n" s="323">
+        <v>0.015219938416659265</v>
+      </c>
+      <c r="K33" t="n" s="324">
+        <v>0.49593237329953443</v>
+      </c>
+      <c r="L33" t="n" s="325">
+        <v>0.4912066501534781</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="314">
+        <v>10238.0</v>
+      </c>
+      <c r="B34" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C34" t="n" s="316">
         <v>5.0</v>
       </c>
-      <c r="E3" t="n" s="320">
+      <c r="D34" t="n" s="317">
         <v>5.0</v>
       </c>
-      <c r="F3" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G3" t="n" s="322">
-        <v>2.0</v>
-      </c>
-      <c r="H3" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I3" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J3" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K3" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L3" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M3" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="316">
-        <v>10174.0</v>
-      </c>
-      <c r="B4" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D4" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n" s="320">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G4" t="n" s="322">
-        <v>3.0</v>
-      </c>
-      <c r="H4" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I4" t="n" s="324">
-        <v>15.0</v>
-      </c>
-      <c r="J4" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K4" t="n" s="326">
-        <v>-0.9925163358198293</v>
-      </c>
-      <c r="L4" t="n" s="327">
-        <v>0.37097439964860296</v>
-      </c>
-      <c r="M4" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="316">
-        <v>10178.0</v>
-      </c>
-      <c r="B5" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C5" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D5" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E5" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F5" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G5" t="n" s="322">
-        <v>4.0</v>
-      </c>
-      <c r="H5" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I5" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J5" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K5" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L5" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M5" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="316">
-        <v>10179.0</v>
-      </c>
-      <c r="B6" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C6" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E6" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F6" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G6" t="n" s="322">
-        <v>5.0</v>
-      </c>
-      <c r="H6" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I6" t="n" s="324">
-        <v>20.0</v>
-      </c>
-      <c r="J6" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K6" t="n" s="326">
-        <v>-0.22160577198441753</v>
-      </c>
-      <c r="L6" t="n" s="327">
-        <v>0.4271096236474155</v>
-      </c>
-      <c r="M6" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="316">
-        <v>10181.0</v>
-      </c>
-      <c r="B7" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C7" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D7" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E7" t="n" s="320">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G7" t="n" s="322">
-        <v>6.0</v>
-      </c>
-      <c r="H7" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I7" t="n" s="324">
-        <v>19.0</v>
-      </c>
-      <c r="J7" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K7" t="n" s="326">
-        <v>-0.4047916744204671</v>
-      </c>
-      <c r="L7" t="n" s="327">
-        <v>0.4127463229939211</v>
-      </c>
-      <c r="M7" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="316">
-        <v>10183.0</v>
-      </c>
-      <c r="B8" t="n" s="317">
-        <v>2.0</v>
-      </c>
-      <c r="C8" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D8" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E8" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F8" t="n" s="321">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n" s="322">
-        <v>7.0</v>
-      </c>
-      <c r="H8" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I8" t="n" s="324">
-        <v>15.0</v>
-      </c>
-      <c r="J8" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K8" t="n" s="326">
-        <v>-0.9925163358198293</v>
-      </c>
-      <c r="L8" t="n" s="327">
-        <v>0.37097439964860296</v>
-      </c>
-      <c r="M8" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="316">
-        <v>10185.0</v>
-      </c>
-      <c r="B9" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C9" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D9" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E9" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F9" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G9" t="n" s="322">
-        <v>8.0</v>
-      </c>
-      <c r="H9" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I9" t="n" s="324">
-        <v>22.0</v>
-      </c>
-      <c r="J9" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K9" t="n" s="326">
-        <v>0.18486577396129877</v>
-      </c>
-      <c r="L9" t="n" s="327">
-        <v>0.4460107555735023</v>
-      </c>
-      <c r="M9" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="316">
-        <v>10186.0</v>
-      </c>
-      <c r="B10" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C10" t="n" s="318">
-        <v>6.0</v>
-      </c>
-      <c r="D10" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E10" t="n" s="320">
-        <v>1.0</v>
-      </c>
-      <c r="F10" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G10" t="n" s="322">
-        <v>9.0</v>
-      </c>
-      <c r="H10" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I10" t="n" s="324">
+      <c r="E34" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="F34" t="n" s="319">
+        <v>10238.0</v>
+      </c>
+      <c r="G34" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H34" t="n" s="321">
         <v>18.0</v>
       </c>
-      <c r="J10" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K10" t="n" s="326">
-        <v>-0.570807638806055</v>
-      </c>
-      <c r="L10" t="n" s="327">
-        <v>0.3985477260487139</v>
-      </c>
-      <c r="M10" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="316">
-        <v>10187.0</v>
-      </c>
-      <c r="B11" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C11" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D11" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E11" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F11" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="n" s="322">
-        <v>10.0</v>
-      </c>
-      <c r="H11" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I11" t="n" s="324">
-        <v>21.0</v>
-      </c>
-      <c r="J11" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K11" t="n" s="326">
-        <v>-0.02286531694915951</v>
-      </c>
-      <c r="L11" t="n" s="327">
-        <v>0.43892601784756424</v>
-      </c>
-      <c r="M11" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="316">
-        <v>10188.0</v>
-      </c>
-      <c r="B12" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C12" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E12" t="n" s="320">
-        <v>3.0</v>
-      </c>
-      <c r="F12" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G12" t="n" s="322">
-        <v>11.0</v>
-      </c>
-      <c r="H12" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I12" t="n" s="324">
-        <v>21.0</v>
-      </c>
-      <c r="J12" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K12" t="n" s="326">
-        <v>-0.02286531694915951</v>
-      </c>
-      <c r="L12" t="n" s="327">
-        <v>0.43892601784756424</v>
-      </c>
-      <c r="M12" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="316">
-        <v>10193.0</v>
-      </c>
-      <c r="B13" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="C13" t="n" s="318">
-        <v>6.0</v>
-      </c>
-      <c r="D13" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E13" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F13" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G13" t="n" s="322">
-        <v>12.0</v>
-      </c>
-      <c r="H13" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I13" t="n" s="324">
-        <v>20.0</v>
-      </c>
-      <c r="J13" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K13" t="n" s="326">
-        <v>-0.22160577198441753</v>
-      </c>
-      <c r="L13" t="n" s="327">
-        <v>0.4271096236474155</v>
-      </c>
-      <c r="M13" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="316">
-        <v>10196.0</v>
-      </c>
-      <c r="B14" t="n" s="317">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D14" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E14" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F14" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G14" t="n" s="322">
-        <v>13.0</v>
-      </c>
-      <c r="H14" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I14" t="n" s="324">
-        <v>16.0</v>
-      </c>
-      <c r="J14" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K14" t="n" s="326">
-        <v>-0.8611601306590028</v>
-      </c>
-      <c r="L14" t="n" s="327">
-        <v>0.3770467770337472</v>
-      </c>
-      <c r="M14" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="316">
-        <v>10197.0</v>
-      </c>
-      <c r="B15" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C15" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D15" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E15" t="n" s="320">
-        <v>2.0</v>
-      </c>
-      <c r="F15" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G15" t="n" s="322">
-        <v>14.0</v>
-      </c>
-      <c r="H15" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I15" t="n" s="324">
-        <v>19.0</v>
-      </c>
-      <c r="J15" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K15" t="n" s="326">
-        <v>-0.4047916744204671</v>
-      </c>
-      <c r="L15" t="n" s="327">
-        <v>0.4127463229939211</v>
-      </c>
-      <c r="M15" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="316">
-        <v>10200.0</v>
-      </c>
-      <c r="B16" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C16" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D16" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E16" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F16" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G16" t="n" s="322">
-        <v>15.0</v>
-      </c>
-      <c r="H16" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I16" t="n" s="324">
-        <v>20.0</v>
-      </c>
-      <c r="J16" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K16" t="n" s="326">
-        <v>-0.22160577198441753</v>
-      </c>
-      <c r="L16" t="n" s="327">
-        <v>0.4271096236474155</v>
-      </c>
-      <c r="M16" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="316">
-        <v>10201.0</v>
-      </c>
-      <c r="B17" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C17" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E17" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F17" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G17" t="n" s="322">
-        <v>16.0</v>
-      </c>
-      <c r="H17" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I17" t="n" s="324">
-        <v>24.0</v>
-      </c>
-      <c r="J17" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K17" t="n" s="326">
-        <v>0.5964843893406454</v>
-      </c>
-      <c r="L17" t="n" s="327">
-        <v>0.4485694498815646</v>
-      </c>
-      <c r="M17" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="316">
-        <v>10202.0</v>
-      </c>
-      <c r="B18" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C18" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D18" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E18" t="n" s="320">
-        <v>3.0</v>
-      </c>
-      <c r="F18" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G18" t="n" s="322">
-        <v>17.0</v>
-      </c>
-      <c r="H18" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I18" t="n" s="324">
-        <v>19.0</v>
-      </c>
-      <c r="J18" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K18" t="n" s="326">
-        <v>-0.4047916744204671</v>
-      </c>
-      <c r="L18" t="n" s="327">
-        <v>0.4127463229939211</v>
-      </c>
-      <c r="M18" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="316">
-        <v>10206.0</v>
-      </c>
-      <c r="B19" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C19" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D19" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E19" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F19" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G19" t="n" s="322">
-        <v>18.0</v>
-      </c>
-      <c r="H19" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I19" t="n" s="324">
-        <v>18.0</v>
-      </c>
-      <c r="J19" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K19" t="n" s="326">
-        <v>-0.570807638806055</v>
-      </c>
-      <c r="L19" t="n" s="327">
-        <v>0.3985477260487139</v>
-      </c>
-      <c r="M19" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="316">
-        <v>10208.0</v>
-      </c>
-      <c r="B20" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="C20" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D20" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E20" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F20" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G20" t="n" s="322">
-        <v>19.0</v>
-      </c>
-      <c r="H20" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I20" t="n" s="324">
-        <v>20.0</v>
-      </c>
-      <c r="J20" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K20" t="n" s="326">
-        <v>-0.22160577198441753</v>
-      </c>
-      <c r="L20" t="n" s="327">
-        <v>0.4271096236474155</v>
-      </c>
-      <c r="M20" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="316">
-        <v>10210.0</v>
-      </c>
-      <c r="B21" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C21" t="n" s="318">
-        <v>6.0</v>
-      </c>
-      <c r="D21" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E21" t="n" s="320">
-        <v>2.0</v>
-      </c>
-      <c r="F21" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G21" t="n" s="322">
-        <v>20.0</v>
-      </c>
-      <c r="H21" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I21" t="n" s="324">
-        <v>19.0</v>
-      </c>
-      <c r="J21" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K21" t="n" s="326">
-        <v>-0.4047916744204671</v>
-      </c>
-      <c r="L21" t="n" s="327">
-        <v>0.4127463229939211</v>
-      </c>
-      <c r="M21" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="316">
-        <v>10213.0</v>
-      </c>
-      <c r="B22" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="C22" t="n" s="318">
-        <v>7.0</v>
-      </c>
-      <c r="D22" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E22" t="n" s="320">
-        <v>6.0</v>
-      </c>
-      <c r="F22" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G22" t="n" s="322">
-        <v>21.0</v>
-      </c>
-      <c r="H22" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I22" t="n" s="324">
-        <v>26.0</v>
-      </c>
-      <c r="J22" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K22" t="n" s="326">
-        <v>0.9877952979938626</v>
-      </c>
-      <c r="L22" t="n" s="327">
-        <v>0.45236469676646146</v>
-      </c>
-      <c r="M22" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="316">
-        <v>10214.0</v>
-      </c>
-      <c r="B23" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C23" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D23" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E23" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F23" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G23" t="n" s="322">
-        <v>22.0</v>
-      </c>
-      <c r="H23" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I23" t="n" s="324">
-        <v>23.0</v>
-      </c>
-      <c r="J23" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K23" t="n" s="326">
-        <v>0.3931426245971137</v>
-      </c>
-      <c r="L23" t="n" s="327">
-        <v>0.44847874651545117</v>
-      </c>
-      <c r="M23" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="316">
-        <v>10215.0</v>
-      </c>
-      <c r="B24" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C24" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D24" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E24" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F24" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G24" t="n" s="322">
-        <v>23.0</v>
-      </c>
-      <c r="H24" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I24" t="n" s="324">
-        <v>18.0</v>
-      </c>
-      <c r="J24" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K24" t="n" s="326">
-        <v>-0.570807638806055</v>
-      </c>
-      <c r="L24" t="n" s="327">
-        <v>0.3985477260487139</v>
-      </c>
-      <c r="M24" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="316">
-        <v>10216.0</v>
-      </c>
-      <c r="B25" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C25" t="n" s="318">
-        <v>7.0</v>
-      </c>
-      <c r="D25" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E25" t="n" s="320">
-        <v>7.0</v>
-      </c>
-      <c r="F25" t="n" s="321">
-        <v>2.0</v>
-      </c>
-      <c r="G25" t="n" s="322">
-        <v>24.0</v>
-      </c>
-      <c r="H25" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I25" t="n" s="324">
-        <v>24.0</v>
-      </c>
-      <c r="J25" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K25" t="n" s="326">
-        <v>0.5964843893406454</v>
-      </c>
-      <c r="L25" t="n" s="327">
-        <v>0.4485694498815646</v>
-      </c>
-      <c r="M25" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="316">
-        <v>10217.0</v>
-      </c>
-      <c r="B26" t="n" s="317">
-        <v>6.0</v>
-      </c>
-      <c r="C26" t="n" s="318">
-        <v>6.0</v>
-      </c>
-      <c r="D26" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E26" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F26" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G26" t="n" s="322">
-        <v>25.0</v>
-      </c>
-      <c r="H26" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I26" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J26" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K26" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L26" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M26" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="316">
-        <v>10221.0</v>
-      </c>
-      <c r="B27" t="n" s="317">
-        <v>2.0</v>
-      </c>
-      <c r="C27" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D27" t="n" s="319">
-        <v>3.0</v>
-      </c>
-      <c r="E27" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F27" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G27" t="n" s="322">
-        <v>26.0</v>
-      </c>
-      <c r="H27" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I27" t="n" s="324">
-        <v>16.0</v>
-      </c>
-      <c r="J27" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K27" t="n" s="326">
-        <v>-0.8611601306590028</v>
-      </c>
-      <c r="L27" t="n" s="327">
-        <v>0.3770467770337472</v>
-      </c>
-      <c r="M27" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="316">
-        <v>10226.0</v>
-      </c>
-      <c r="B28" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C28" t="n" s="318">
-        <v>3.0</v>
-      </c>
-      <c r="D28" t="n" s="319">
-        <v>6.0</v>
-      </c>
-      <c r="E28" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F28" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G28" t="n" s="322">
+      <c r="I34" t="n" s="322">
         <v>27.0</v>
       </c>
-      <c r="H28" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I28" t="n" s="324">
-        <v>23.0</v>
-      </c>
-      <c r="J28" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K28" t="n" s="326">
-        <v>0.3931426245971137</v>
-      </c>
-      <c r="L28" t="n" s="327">
-        <v>0.44847874651545117</v>
-      </c>
-      <c r="M28" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="316">
-        <v>10228.0</v>
-      </c>
-      <c r="B29" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C29" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D29" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E29" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F29" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G29" t="n" s="322">
-        <v>28.0</v>
-      </c>
-      <c r="H29" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I29" t="n" s="324">
-        <v>21.0</v>
-      </c>
-      <c r="J29" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K29" t="n" s="326">
-        <v>-0.02286531694915951</v>
-      </c>
-      <c r="L29" t="n" s="327">
-        <v>0.43892601784756424</v>
-      </c>
-      <c r="M29" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="316">
-        <v>10232.0</v>
-      </c>
-      <c r="B30" t="n" s="317">
-        <v>5.0</v>
-      </c>
-      <c r="C30" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D30" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E30" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F30" t="n" s="321">
-        <v>5.0</v>
-      </c>
-      <c r="G30" t="n" s="322">
-        <v>29.0</v>
-      </c>
-      <c r="H30" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I30" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J30" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K30" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L30" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M30" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="316">
-        <v>10233.0</v>
-      </c>
-      <c r="B31" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="C31" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D31" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E31" t="n" s="320">
-        <v>6.0</v>
-      </c>
-      <c r="F31" t="n" s="321">
-        <v>7.0</v>
-      </c>
-      <c r="G31" t="n" s="322">
-        <v>30.0</v>
-      </c>
-      <c r="H31" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I31" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J31" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K31" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L31" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M31" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="316">
-        <v>10234.0</v>
-      </c>
-      <c r="B32" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C32" t="n" s="318">
-        <v>5.0</v>
-      </c>
-      <c r="D32" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E32" t="n" s="320">
-        <v>6.0</v>
-      </c>
-      <c r="F32" t="n" s="321">
-        <v>6.0</v>
-      </c>
-      <c r="G32" t="n" s="322">
-        <v>31.0</v>
-      </c>
-      <c r="H32" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I32" t="n" s="324">
-        <v>25.0</v>
-      </c>
-      <c r="J32" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K32" t="n" s="326">
-        <v>0.7939279869224746</v>
-      </c>
-      <c r="L32" t="n" s="327">
-        <v>0.449063651696119</v>
-      </c>
-      <c r="M32" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="316">
-        <v>10237.0</v>
-      </c>
-      <c r="B33" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="C33" t="n" s="318">
-        <v>6.0</v>
-      </c>
-      <c r="D33" t="n" s="319">
-        <v>4.0</v>
-      </c>
-      <c r="E33" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="F33" t="n" s="321">
-        <v>3.0</v>
-      </c>
-      <c r="G33" t="n" s="322">
-        <v>32.0</v>
-      </c>
-      <c r="H33" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I33" t="n" s="324">
-        <v>20.0</v>
-      </c>
-      <c r="J33" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K33" t="n" s="326">
-        <v>-0.22160577198441753</v>
-      </c>
-      <c r="L33" t="n" s="327">
-        <v>0.4271096236474155</v>
-      </c>
-      <c r="M33" t="n" s="328">
-        <v>0.4791275535217573</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="316">
-        <v>10238.0</v>
-      </c>
-      <c r="B34" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="C34" t="n" s="318">
-        <v>4.0</v>
-      </c>
-      <c r="D34" t="n" s="319">
-        <v>5.0</v>
-      </c>
-      <c r="E34" t="n" s="320">
-        <v>5.0</v>
-      </c>
-      <c r="F34" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="G34" t="n" s="322">
-        <v>33.0</v>
-      </c>
-      <c r="H34" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="I34" t="n" s="324">
-        <v>22.0</v>
-      </c>
-      <c r="J34" t="n" s="325">
-        <v>33.0</v>
-      </c>
-      <c r="K34" t="n" s="326">
-        <v>0.18486577396129877</v>
-      </c>
-      <c r="L34" t="n" s="327">
-        <v>0.4460107555735023</v>
-      </c>
-      <c r="M34" t="n" s="328">
-        <v>0.4791275535217573</v>
+      <c r="J34" t="n" s="323">
+        <v>0.27533387470763454</v>
+      </c>
+      <c r="K34" t="n" s="324">
+        <v>0.494856047306806</v>
+      </c>
+      <c r="L34" t="n" s="325">
+        <v>0.4912066501534781</v>
       </c>
     </row>
   </sheetData>
